--- a/src/informesGenerados/PextListado.xlsx
+++ b/src/informesGenerados/PextListado.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="364">
   <si>
     <t>Unidad Organizativa</t>
   </si>
@@ -49,112 +49,1063 @@
     <t>CDNT</t>
   </si>
   <si>
+    <t>DTCM</t>
+  </si>
+  <si>
+    <t>2021-01-06</t>
+  </si>
+  <si>
+    <t>Afectación a la planta exterior por corte de FO Ave.Finlay. Nuevitas</t>
+  </si>
+  <si>
+    <t>Camagüey</t>
+  </si>
+  <si>
+    <t>300/21</t>
+  </si>
+  <si>
+    <t>Fibra óptica</t>
+  </si>
+  <si>
+    <t>DTCM-01-21-0002</t>
+  </si>
+  <si>
+    <t>DTMZ</t>
+  </si>
+  <si>
+    <t>2021-01-07</t>
+  </si>
+  <si>
+    <t>Afectación a la planta exterior por corte de FO Batey de Junco hacia La Carlota</t>
+  </si>
+  <si>
+    <t>Jovellanos</t>
+  </si>
+  <si>
+    <t>269/21</t>
+  </si>
+  <si>
+    <t>DTMZ-01-21-0001</t>
+  </si>
+  <si>
+    <t>DTCF</t>
+  </si>
+  <si>
+    <t>2021-01-12</t>
+  </si>
+  <si>
+    <t>Afectación a la planta exterior por corte y sustracción de cable telefónico UBPC Turquino</t>
+  </si>
+  <si>
+    <t>Rodas</t>
+  </si>
+  <si>
+    <t>273/21</t>
+  </si>
+  <si>
+    <t>Cable telefónico</t>
+  </si>
+  <si>
+    <t>DTCF-01-21-0008</t>
+  </si>
+  <si>
+    <t>DTOE</t>
+  </si>
+  <si>
+    <t>Afectación a la planta exterior por corte de cable telefónico de 200 pares Km 3/2. Punta Brava</t>
+  </si>
+  <si>
+    <t>La Lisa</t>
+  </si>
+  <si>
+    <t>534/21</t>
+  </si>
+  <si>
+    <t>DVLH-01-21-0004</t>
+  </si>
+  <si>
     <t>DTGR</t>
   </si>
   <si>
-    <t>2020-01-02</t>
-  </si>
-  <si>
-    <t>Afectación a la planta exterior por  corte y sustracción de bajante telefónico Calle 16 Rosa La Bayamesa, entre 33 y 39</t>
+    <t>2021-01-20</t>
+  </si>
+  <si>
+    <t>Afectación a la planta exterior por corte y sustracción de tensor Km 2. Carretera Bayamo</t>
   </si>
   <si>
     <t>Bayamo</t>
   </si>
   <si>
-    <t>59/20</t>
+    <t>1037/21</t>
+  </si>
+  <si>
+    <t>Tensor</t>
+  </si>
+  <si>
+    <t>DTGR-01-21-0006</t>
+  </si>
+  <si>
+    <t>DTSS</t>
+  </si>
+  <si>
+    <t>2021-01-23</t>
+  </si>
+  <si>
+    <t>Afectación a la planta exterior por corte y sustracción de bajante telefónico Calle José Martí, entre A y B</t>
+  </si>
+  <si>
+    <t>Trinidad</t>
+  </si>
+  <si>
+    <t>958/21</t>
   </si>
   <si>
     <t>Bajante telefónico</t>
   </si>
   <si>
-    <t>DTGR-01-20-0001</t>
+    <t>DTSS-01-21-0014</t>
+  </si>
+  <si>
+    <t>DTMY</t>
+  </si>
+  <si>
+    <t>2021-01-25</t>
+  </si>
+  <si>
+    <t>Afectación a la planta exterior por corte de cable coaxial Carretera a Cayajabos, entre Repetidor 3 y Repetidor 4</t>
+  </si>
+  <si>
+    <t>Bejucal</t>
+  </si>
+  <si>
+    <t>710/21</t>
+  </si>
+  <si>
+    <t>Cable coaxial</t>
+  </si>
+  <si>
+    <t>DTMY-01-21-0001</t>
+  </si>
+  <si>
+    <t>DTPR</t>
+  </si>
+  <si>
+    <t>Afectación a la planta exterior por corte y sustracción de tensor Carretera a Sábalo</t>
+  </si>
+  <si>
+    <t>Guane</t>
+  </si>
+  <si>
+    <t>906/21</t>
+  </si>
+  <si>
+    <t>DTPR-01-21-0003</t>
+  </si>
+  <si>
+    <t>2021-01-29</t>
+  </si>
+  <si>
+    <t>Afectación a la planta exterior por corte y sustracción de cable telefónico Camino a la localidad La Pimienta</t>
+  </si>
+  <si>
+    <t>Minas de Matahambre</t>
+  </si>
+  <si>
+    <t>1070/21</t>
+  </si>
+  <si>
+    <t>DTPR-01-21-0006</t>
   </si>
   <si>
     <t>DTSC</t>
   </si>
   <si>
-    <t>2020-01-06</t>
-  </si>
-  <si>
-    <t>Afectación a la planta exterior por  corte y sustracción de cable telefónico Carretera San Luis- Dos Caminos</t>
-  </si>
-  <si>
-    <t>San Luis (SC)</t>
-  </si>
-  <si>
-    <t>356/20</t>
-  </si>
-  <si>
-    <t>Cable telefónico</t>
-  </si>
-  <si>
-    <t>DTSC-01-20-0001</t>
-  </si>
-  <si>
-    <t>DTES</t>
-  </si>
-  <si>
-    <t>2020-01-17</t>
-  </si>
-  <si>
-    <t>Afectación a la planta exterior por  corte de un cable telefónico de 30 pares Entre 27 de Noviembre y Aranguren</t>
-  </si>
-  <si>
-    <t>Regla</t>
-  </si>
-  <si>
-    <t>3160/20</t>
-  </si>
-  <si>
-    <t>DVLH-01-20-0010</t>
-  </si>
-  <si>
-    <t>2020-01-20</t>
-  </si>
-  <si>
-    <t>Afectación a la planta exterior por  corte y sustracción de un cable telefónico de 100 pares Carretera de Mar Verde a 300 mts de la Fábrica Marcel Bravo</t>
+    <t>Afectación a la planta exterior por corte y sustracción de bajante telefónico Carretera de Baconao KM 1 1/2</t>
   </si>
   <si>
     <t>Santiago de Cuba</t>
   </si>
   <si>
-    <t>1208/20</t>
-  </si>
-  <si>
-    <t>DTSC-01-20-0007</t>
-  </si>
-  <si>
-    <t>2020-01-26</t>
-  </si>
-  <si>
-    <t>Afectación a la planta exterior por  corte y sustracción de unbajante telefónico Calle José Antonio Hechavarria, entre Fiagueredo y Calle 46</t>
-  </si>
-  <si>
-    <t>1044/20</t>
-  </si>
-  <si>
-    <t>DTGR-01-20-0012</t>
-  </si>
-  <si>
-    <t>DTMZ</t>
-  </si>
-  <si>
-    <t>2020-01-28</t>
-  </si>
-  <si>
-    <t>Afectación a la planta exterior por  corte y sustracción  de tensor de acero galvanizado de 8 mm Curva Finca del Miedo a Entronque J23</t>
-  </si>
-  <si>
-    <t>Jagüey Grande</t>
-  </si>
-  <si>
-    <t>1348/20</t>
-  </si>
-  <si>
-    <t>Tensor</t>
-  </si>
-  <si>
-    <t>DTMZ-01-20-0009</t>
+    <t>1693/21</t>
+  </si>
+  <si>
+    <t>DTSC-01-21-0008</t>
+  </si>
+  <si>
+    <t>2021-02-01</t>
+  </si>
+  <si>
+    <t>Afectación a la planta exterior por corte y sustracción de alambre spring Carretera a Manicaragua, entronque El Tablón</t>
+  </si>
+  <si>
+    <t>Cumanayagua</t>
+  </si>
+  <si>
+    <t>759/21</t>
+  </si>
+  <si>
+    <t>Alambre de coser</t>
+  </si>
+  <si>
+    <t>DTCF-02-21-0020</t>
+  </si>
+  <si>
+    <t>2021-02-05</t>
+  </si>
+  <si>
+    <t>Afectación a la planta exterior por corte y sustracción de de tensor Carretera Central Este Km 10</t>
+  </si>
+  <si>
+    <t>1806/21</t>
+  </si>
+  <si>
+    <t>DTCM-02-21-0014</t>
+  </si>
+  <si>
+    <t>DTLT</t>
+  </si>
+  <si>
+    <t>2021-02-08</t>
+  </si>
+  <si>
+    <t>Afectación a la planta exterior por corte y sustracción de bajante Edificio 23,  entre calle 14 y calle 16</t>
+  </si>
+  <si>
+    <t>Las Tunas</t>
+  </si>
+  <si>
+    <t>1636/21</t>
+  </si>
+  <si>
+    <t>DTLT-02-21-0018</t>
+  </si>
+  <si>
+    <t>2021-02-11</t>
+  </si>
+  <si>
+    <t>Afectación a la planta exterior por corte y sustracción de cable telefónico Autopista Nacional. Escuela Vocacional</t>
+  </si>
+  <si>
+    <t>2351/21</t>
+  </si>
+  <si>
+    <t>DTSC-02-21-0011</t>
+  </si>
+  <si>
+    <t>2021-02-17</t>
+  </si>
+  <si>
+    <t>Afectación a la planta exterior por corte y sustracción del tensor de anclaje Calle 72</t>
+  </si>
+  <si>
+    <t>Jobabo</t>
+  </si>
+  <si>
+    <t>1961/21</t>
+  </si>
+  <si>
+    <t>DTLT-02-21-0022</t>
+  </si>
+  <si>
+    <t>Afectación a la planta exterior por corte y sustracción del bajante telefónico Calle 2. No. 48,  entre 13 y 15</t>
+  </si>
+  <si>
+    <t>2535/21</t>
+  </si>
+  <si>
+    <t>DTGR-02-21-0015</t>
+  </si>
+  <si>
+    <t>2021-02-22</t>
+  </si>
+  <si>
+    <t>Afectación a la planta exterior por corte y sustracción de FO 3 Km a la salida de Amarillas hacia Aguada de Pasajeros</t>
+  </si>
+  <si>
+    <t>Calimete</t>
+  </si>
+  <si>
+    <t>2481/21</t>
+  </si>
+  <si>
+    <t>DTMZ-02-21-0010</t>
+  </si>
+  <si>
+    <t>DTAR</t>
+  </si>
+  <si>
+    <t>2021-02-23</t>
+  </si>
+  <si>
+    <t>Afectación a la planta exterior por corte y sustracción de tensor Carretera Playa San Pedro</t>
+  </si>
+  <si>
+    <t>Bahía Honda</t>
+  </si>
+  <si>
+    <t>1863/21</t>
+  </si>
+  <si>
+    <t>DTAR-02-21-0052</t>
+  </si>
+  <si>
+    <t>2021-02-26</t>
+  </si>
+  <si>
+    <t>Afectación a la planta exterior por corte y sustracción de bajante telefónico Calle 18, entre 33 y 39</t>
+  </si>
+  <si>
+    <t>2932/21</t>
+  </si>
+  <si>
+    <t>DTGR-02-21-0021</t>
+  </si>
+  <si>
+    <t>2021-03-02</t>
+  </si>
+  <si>
+    <t>Afectación a la planta exterior por corte y sustracción de tensor Carretera de Nuevitas. La Parada de omnibus frente a la Finca Camagüey</t>
+  </si>
+  <si>
+    <t>3059/21</t>
+  </si>
+  <si>
+    <t>DTCM-03-21-0020</t>
+  </si>
+  <si>
+    <t>Afectación a la planta exterior por corte y sustracción de tensor Localidad de Sofía</t>
+  </si>
+  <si>
+    <t>Yara</t>
+  </si>
+  <si>
+    <t>3130/21</t>
+  </si>
+  <si>
+    <t>DTGR-03-21-0022</t>
+  </si>
+  <si>
+    <t>2021-03-03</t>
+  </si>
+  <si>
+    <t>Afectación a la planta exterior por corte y sustracción de cable telefónico Calle 41</t>
+  </si>
+  <si>
+    <t>Artemisa</t>
+  </si>
+  <si>
+    <t>2137/21</t>
+  </si>
+  <si>
+    <t>DTAR-03-21-0060</t>
+  </si>
+  <si>
+    <t>Afectación a la planta exterior por corte  de cable telefónico Calle 7,  entre Escario y Reloj</t>
+  </si>
+  <si>
+    <t>3444/21</t>
+  </si>
+  <si>
+    <t>DTSC-03-21-0014</t>
+  </si>
+  <si>
+    <t>2021-03-04</t>
+  </si>
+  <si>
+    <t>Afectación a la planta exterior por corte y sustracción de bajante telefónico Edifico # 4; Carretera central</t>
+  </si>
+  <si>
+    <t>2547/21</t>
+  </si>
+  <si>
+    <t>DTLT-03-21-0032</t>
+  </si>
+  <si>
+    <t>DTVC</t>
+  </si>
+  <si>
+    <t>2021-03-07</t>
+  </si>
+  <si>
+    <t>Afectación a la planta exterior por corte de FO Localidad Cambaito</t>
+  </si>
+  <si>
+    <t>Caibarién</t>
+  </si>
+  <si>
+    <t>2629/21</t>
+  </si>
+  <si>
+    <t>DTVC-03-21-0036</t>
+  </si>
+  <si>
+    <t>2021-03-09</t>
+  </si>
+  <si>
+    <t>Afectación a la planta exterior por corte y sustracción de bajante telefónico Calle 42 Edificio 20</t>
+  </si>
+  <si>
+    <t>2758/21</t>
+  </si>
+  <si>
+    <t>DTLT-03-21-0035</t>
+  </si>
+  <si>
+    <t>2021-03-13</t>
+  </si>
+  <si>
+    <t>Afectación a la planta exterior por corte de FO Avenida Las Américas, Km 1, entre calle G y H</t>
+  </si>
+  <si>
+    <t>Cárdenas</t>
+  </si>
+  <si>
+    <t>25/21</t>
+  </si>
+  <si>
+    <t>DTMZ-03-21-0019</t>
+  </si>
+  <si>
+    <t>2021-03-15</t>
+  </si>
+  <si>
+    <t>Afectación a la planta exterior, por corte de cable telefónico de 400 pares Comunidad CAI Fajardo</t>
+  </si>
+  <si>
+    <t>Güira de Melena</t>
+  </si>
+  <si>
+    <t>1653/21</t>
+  </si>
+  <si>
+    <t>DTAR-03-21-0076</t>
+  </si>
+  <si>
+    <t>2021-03-16</t>
+  </si>
+  <si>
+    <t>Afectación a la planta exterior por corte y sustracción de alambre de coser Avenida General Carrillo</t>
+  </si>
+  <si>
+    <t>Remedios</t>
+  </si>
+  <si>
+    <t>3033/21</t>
+  </si>
+  <si>
+    <t>DTVC-03-21-0053</t>
+  </si>
+  <si>
+    <t>2021-03-22</t>
+  </si>
+  <si>
+    <t>Afectación a la planta exterior, por corte de cable telefónico soterrado de 50 pares Cancha deportiva Bloque F</t>
+  </si>
+  <si>
+    <t>4640/21</t>
+  </si>
+  <si>
+    <t>DTSC-03-21-0022</t>
+  </si>
+  <si>
+    <t>DTHO</t>
+  </si>
+  <si>
+    <t>2021-03-25</t>
+  </si>
+  <si>
+    <t>Afectación a la planta exterior, por corte de FO Carretera Moa - Baracoa.Tramo después del aserrio</t>
+  </si>
+  <si>
+    <t>Moa</t>
+  </si>
+  <si>
+    <t>4746/21</t>
+  </si>
+  <si>
+    <t>DTHO-03-21-0033</t>
+  </si>
+  <si>
+    <t>2021-03-26</t>
+  </si>
+  <si>
+    <t>Afectación a la planta exterior, por corte y sustracción de tensor Carretera Maffo Moscú</t>
+  </si>
+  <si>
+    <t>4950/21</t>
+  </si>
+  <si>
+    <t>DTSC-03-21-0028</t>
+  </si>
+  <si>
+    <t>2021-03-30</t>
+  </si>
+  <si>
+    <t>Afectación a la planta exterior, por corte FO Carretera de Chivirico. Ruta Sevilla. Frente a la playa</t>
+  </si>
+  <si>
+    <t>Guamá</t>
+  </si>
+  <si>
+    <t>5212/21</t>
+  </si>
+  <si>
+    <t>DTSC-03-21-0029</t>
+  </si>
+  <si>
+    <t>2021-04-03</t>
+  </si>
+  <si>
+    <t>Afectación a la planta exterior, por corte y sustracción de alambre de cobre Carretera Central cerca de Paso del Medio</t>
+  </si>
+  <si>
+    <t>Matanzas</t>
+  </si>
+  <si>
+    <t>4465/21</t>
+  </si>
+  <si>
+    <t>Alambre de cobre</t>
+  </si>
+  <si>
+    <t>DTMZ-04-21-0025</t>
+  </si>
+  <si>
+    <t>2021-04-05</t>
+  </si>
+  <si>
+    <t>Afectación a la planta exterior, por sustracción módulo de empate de FO Carretera Vía Blanca. Localidad Varadero1</t>
+  </si>
+  <si>
+    <t>4518/21</t>
+  </si>
+  <si>
+    <t>DTMZ-04-21-0028</t>
+  </si>
+  <si>
+    <t>2021-04-07</t>
+  </si>
+  <si>
+    <t>Afectación a la planta exterior, por corte y sustracción de bajante telefónico Loma del Chivo. Hogar de Ancianos</t>
+  </si>
+  <si>
+    <t>Caimito</t>
+  </si>
+  <si>
+    <t>3329/21</t>
+  </si>
+  <si>
+    <t>DTAR-04-21-0089</t>
+  </si>
+  <si>
+    <t>2021-04-10</t>
+  </si>
+  <si>
+    <t>Afectación a la planta exterior, por corte y sustracción de bajante telefónico Calle 13 No. 3, entre 12 y 14</t>
+  </si>
+  <si>
+    <t>Jimaguayú</t>
+  </si>
+  <si>
+    <t>5582/21</t>
+  </si>
+  <si>
+    <t>DTCM-04-21-0030</t>
+  </si>
+  <si>
+    <t>2021-04-12</t>
+  </si>
+  <si>
+    <t>Afectación a la planta exterior, por corte y sustracción de bajante telefónico Calle 10, entre 5ta y 7ma. Rpto. 8 de Marzo</t>
+  </si>
+  <si>
+    <t>Palma Soriano</t>
+  </si>
+  <si>
+    <t>6194/21</t>
+  </si>
+  <si>
+    <t>DTSC-04-21-0035</t>
+  </si>
+  <si>
+    <t>DTSR</t>
+  </si>
+  <si>
+    <t>2021-04-13</t>
+  </si>
+  <si>
+    <t>Afectación a la planta exterior, por corte y sustracción de cable telefónico de 400 pares Carretera Vieja del Chico. Finca Milagros</t>
+  </si>
+  <si>
+    <t>Boyeros</t>
+  </si>
+  <si>
+    <t>20011/21</t>
+  </si>
+  <si>
+    <t>DVLH-04-21-0069</t>
+  </si>
+  <si>
+    <t>2021-04-14</t>
+  </si>
+  <si>
+    <t>Afectación a la planta exterior, por corte de FO Entre Cauto Cristo y Bayamo, al lado de la base de ómnibus Yutóng</t>
+  </si>
+  <si>
+    <t>4379/21</t>
+  </si>
+  <si>
+    <t>DTGR-04-21-0037</t>
+  </si>
+  <si>
+    <t>2021-04-15</t>
+  </si>
+  <si>
+    <t>Afectación a la planta exterior, por corte de cable telefónico Carretera Vieja del Chico. Finca Milagros</t>
+  </si>
+  <si>
+    <t>20464/21</t>
+  </si>
+  <si>
+    <t>DVLH-04-21-0072</t>
+  </si>
+  <si>
+    <t>2021-04-16</t>
+  </si>
+  <si>
+    <t>Afectación a la planta exterior, por corte y sustracción de tensor km 6 de la carretera a La Coloma, en el entronque al IPUEC 4</t>
+  </si>
+  <si>
+    <t>Pinar del Río</t>
+  </si>
+  <si>
+    <t>3775/21</t>
+  </si>
+  <si>
+    <t>DTPR-04-21-0015</t>
+  </si>
+  <si>
+    <t>2021-04-22</t>
+  </si>
+  <si>
+    <t>Afectación a la planta exterior, por corte y sustracción de tensor Carretera San Predro. La Curva</t>
+  </si>
+  <si>
+    <t>3833/21</t>
+  </si>
+  <si>
+    <t>DTAR-04-21-0108</t>
+  </si>
+  <si>
+    <t>2021-05-03</t>
+  </si>
+  <si>
+    <t>Afectación a la planta exterior, por corte y sustracción de bajante telefónico Carretera Central Oeste</t>
+  </si>
+  <si>
+    <t>4625/21</t>
+  </si>
+  <si>
+    <t>DTLT-05-21-0041</t>
+  </si>
+  <si>
+    <t>2021-05-04</t>
+  </si>
+  <si>
+    <t>Afectación a la planta exterior, por corte de FO aérea Calle General Alemán. No. 45</t>
+  </si>
+  <si>
+    <t>Palmira</t>
+  </si>
+  <si>
+    <t>27/21</t>
+  </si>
+  <si>
+    <t>DTCF-05-21-0072</t>
+  </si>
+  <si>
+    <t>2021-05-05</t>
+  </si>
+  <si>
+    <t>Afectación a la planta exterior, por corte y sustracción de bajante telefónico Reparto Risueña. Politécnico Informática Pepito Tey</t>
+  </si>
+  <si>
+    <t>8035/21</t>
+  </si>
+  <si>
+    <t>DTSC-05-21-0046</t>
+  </si>
+  <si>
+    <t>2021-05-06</t>
+  </si>
+  <si>
+    <t>Afectación a la planta exterior, por corte y sustracción de bajante telefónico Calle Ignacio Agramonte, entre Vicente Somonte y Despoblado</t>
+  </si>
+  <si>
+    <t>7203/21</t>
+  </si>
+  <si>
+    <t>DTCM-05-21-0040</t>
+  </si>
+  <si>
+    <t>2021-05-07</t>
+  </si>
+  <si>
+    <t>Afectación a la planta exterior, por corte y sustracción de cable telefónico Carretera Guayabal. Localidad La Fé</t>
+  </si>
+  <si>
+    <t>Amancio Rodríguez</t>
+  </si>
+  <si>
+    <t>4798/21</t>
+  </si>
+  <si>
+    <t>DTLT-05-21-0043</t>
+  </si>
+  <si>
+    <t>2021-05-08</t>
+  </si>
+  <si>
+    <t>Afectación a la planta exterior, por corte y sustracción de bajante telefónico Calle Israel Santos</t>
+  </si>
+  <si>
+    <t>4827/21</t>
+  </si>
+  <si>
+    <t>DTLT-05-21-0044</t>
+  </si>
+  <si>
+    <t>DTIJ</t>
+  </si>
+  <si>
+    <t>2021-05-14</t>
+  </si>
+  <si>
+    <t>Afectación a la planta exterior, por corte y sustracción de tensor Zona de La Melvis</t>
+  </si>
+  <si>
+    <t>Isla de la Juventud</t>
+  </si>
+  <si>
+    <t>542/21</t>
+  </si>
+  <si>
+    <t>DTIJ-05-21-0007</t>
+  </si>
+  <si>
+    <t>2021-05-19</t>
+  </si>
+  <si>
+    <t>Afectación a la planta exterior, por corte y sustracción de tensor Carretera de guanábana a la Fábrica Bellotex de Matanzas</t>
+  </si>
+  <si>
+    <t>6289/21</t>
+  </si>
+  <si>
+    <t>DTMZ-05-21-0042</t>
+  </si>
+  <si>
+    <t>2021-05-27</t>
+  </si>
+  <si>
+    <t>Afectación a la planta exterior, por corte y sustracción de bajante telefónico Julián Grimau No . 32</t>
+  </si>
+  <si>
+    <t>5490/21</t>
+  </si>
+  <si>
+    <t>DTLT-05-21-0057</t>
+  </si>
+  <si>
+    <t>2021-05-31</t>
+  </si>
+  <si>
+    <t>Afectación a la planta exterior, por disparo de escopeta de perdigones que perfora cable de 200 pares Carretera del CAI Julio Reyes, frente a la Bodega</t>
+  </si>
+  <si>
+    <t>6924/21</t>
+  </si>
+  <si>
+    <t>DTMZ-05-21-0045</t>
+  </si>
+  <si>
+    <t>2021-06-04</t>
+  </si>
+  <si>
+    <t>Afectación a la planta exterior, por corte y sustracción de alambre Spring Carretera Central, entre KM 232 y KM 235</t>
+  </si>
+  <si>
+    <t>Placetas</t>
+  </si>
+  <si>
+    <t>6603/21</t>
+  </si>
+  <si>
+    <t>DTVC-06-21-0119</t>
+  </si>
+  <si>
+    <t>2021-06-05</t>
+  </si>
+  <si>
+    <t>Afectación a la planta exterior, por corte y sustracción de alambre de cobre Rpto. Mario Muñóz</t>
+  </si>
+  <si>
+    <t>Fomento</t>
+  </si>
+  <si>
+    <t>6317/21</t>
+  </si>
+  <si>
+    <t>DTSS-06-21-0170</t>
+  </si>
+  <si>
+    <t>2021-06-09</t>
+  </si>
+  <si>
+    <t>Afectación a la planta exterior, por corte y sustracción de bajante telefónico Carretera Central frente a la ETICA</t>
+  </si>
+  <si>
+    <t>10379/21</t>
+  </si>
+  <si>
+    <t>DTSC-06-21-0053</t>
+  </si>
+  <si>
+    <t>2021-06-11</t>
+  </si>
+  <si>
+    <t>Afectación a la planta exterior, por corte y sustracción de bajante telefónico Calle 1ra. N . 19,  entre Línea y A</t>
+  </si>
+  <si>
+    <t>Vertientes</t>
+  </si>
+  <si>
+    <t>9376/21</t>
+  </si>
+  <si>
+    <t>DTCM-06-21-0067</t>
+  </si>
+  <si>
+    <t>2021-06-12</t>
+  </si>
+  <si>
+    <t>Afectación a la planta exterior, por corte y sustracción de bajante telefónico Carretera de Siboney</t>
+  </si>
+  <si>
+    <t>10581/21</t>
+  </si>
+  <si>
+    <t>DTSC-06-21-0055</t>
+  </si>
+  <si>
+    <t>2021-06-14</t>
+  </si>
+  <si>
+    <t>Afectación a la planta exterior, por corte y sustracción de tensor Carretera Mella Cítrico</t>
+  </si>
+  <si>
+    <t>686/21</t>
+  </si>
+  <si>
+    <t>DTIJ-06-21-0012</t>
+  </si>
+  <si>
+    <t>2021-06-16</t>
+  </si>
+  <si>
+    <t>Afectación a la planta exterior, por corte y sustracción de cable telefónico Comunidad 5 de Septiembre. Rodas</t>
+  </si>
+  <si>
+    <t>4484/21</t>
+  </si>
+  <si>
+    <t>DTCF-06-21-0116</t>
+  </si>
+  <si>
+    <t>Afectación a la planta exterior, por corte y sustracción de bajante telefónico Calle Agustin Cebereco. Edif.27,  entre 42 y 45</t>
+  </si>
+  <si>
+    <t>6173/21</t>
+  </si>
+  <si>
+    <t>DTLT-06-21-0061</t>
+  </si>
+  <si>
+    <t>2021-06-18</t>
+  </si>
+  <si>
+    <t>Afectación a la planta exterior, por corte y sustracción de bajante telefónico Zona Especial de Desarrollo Mariel</t>
+  </si>
+  <si>
+    <t>Mariel</t>
+  </si>
+  <si>
+    <t>5770/21</t>
+  </si>
+  <si>
+    <t>DTAR-06-21-0174</t>
+  </si>
+  <si>
+    <t>2021-06-21</t>
+  </si>
+  <si>
+    <t>Afectación a la planta exterior, por corte y sustracción de tensor Localidad La Melvis</t>
+  </si>
+  <si>
+    <t>730/21</t>
+  </si>
+  <si>
+    <t>DTIJ-06-21-0015</t>
+  </si>
+  <si>
+    <t>Afectación a la planta exterior, por corte y sustracción de cable telefónico Carretera del Pedagógico. Barrio La República</t>
+  </si>
+  <si>
+    <t>11213/21</t>
+  </si>
+  <si>
+    <t>DTSC-06-21-0058</t>
+  </si>
+  <si>
+    <t>2021-06-24</t>
+  </si>
+  <si>
+    <t>Afectación a la planta exterior, por corte y sustracción de alambre Spring (coser) Consejo Popular Manajanabo</t>
+  </si>
+  <si>
+    <t>Santa Clara</t>
+  </si>
+  <si>
+    <t>7202/21</t>
+  </si>
+  <si>
+    <t>DTVC-06-21-0141</t>
+  </si>
+  <si>
+    <t>2021-06-25</t>
+  </si>
+  <si>
+    <t>Afectación a la planta exterior, por corte y sustracción de bajante telefónico Carretera Central, vía Las Tunas. No. 212</t>
+  </si>
+  <si>
+    <t>Holguín</t>
+  </si>
+  <si>
+    <t>DTHO-06-21-0072</t>
+  </si>
+  <si>
+    <t>2021-06-27</t>
+  </si>
+  <si>
+    <t>Afectación a la planta exterior, por corte de FO Localidad Indio Hatuey</t>
+  </si>
+  <si>
+    <t>Perico</t>
+  </si>
+  <si>
+    <t>8278/21</t>
+  </si>
+  <si>
+    <t>DTMZ-06-21-0063</t>
+  </si>
+  <si>
+    <t>2021-06-28</t>
+  </si>
+  <si>
+    <t>Afectación a la planta exterior, por corte y sustracción de bajante telefónico Carretera Central. Rpto. Edecio Pérez. No. 193</t>
+  </si>
+  <si>
+    <t>10108/21</t>
+  </si>
+  <si>
+    <t>DTHO-06-21-0073</t>
+  </si>
+  <si>
+    <t>DTNO</t>
+  </si>
+  <si>
+    <t>Afectada la estructura de un Gabinete de la Red Flexible Calle Vapor. Localidad Cayo Hueso</t>
+  </si>
+  <si>
+    <t>Centro Habana</t>
+  </si>
+  <si>
+    <t>38207/21</t>
+  </si>
+  <si>
+    <t>Gabinetes</t>
+  </si>
+  <si>
+    <t>DVLH-06-21-0135</t>
+  </si>
+  <si>
+    <t>2021-07-10</t>
+  </si>
+  <si>
+    <t>Afectación a la planta exterior, por corte y sustracción de tensor y FO Carretera Mar Verde. km 8 1/2</t>
+  </si>
+  <si>
+    <t>DTSC-07-21-0094</t>
+  </si>
+  <si>
+    <t>2021-07-12</t>
+  </si>
+  <si>
+    <t>Afectadas 2 AP Wifi, por corte de cable de red Autopista Nacional Km 82</t>
+  </si>
+  <si>
+    <t>Nueva Paz</t>
+  </si>
+  <si>
+    <t>3982/21</t>
+  </si>
+  <si>
+    <t>Cable simétrico</t>
+  </si>
+  <si>
+    <t>DTMY-07-21-0024</t>
+  </si>
+  <si>
+    <t>2021-07-13</t>
+  </si>
+  <si>
+    <t>Afectación a la planta exterior, por corte y sustracción de bajante telefónico Calle 6, entre 9 y 11</t>
+  </si>
+  <si>
+    <t>9766/21</t>
+  </si>
+  <si>
+    <t>DTGR-07-21-0124</t>
+  </si>
+  <si>
+    <t>Afectación a la planta exterior, por corte de cable telefónico de 100 pares Localidad Coliseo</t>
+  </si>
+  <si>
+    <t>8935/21</t>
+  </si>
+  <si>
+    <t>DTMZ-07-21-0095</t>
+  </si>
+  <si>
+    <t>2021-07-15</t>
+  </si>
+  <si>
+    <t>Afectación a la planta exterior, por corte y sustracción de cable telefónico Entrada al Fiul</t>
+  </si>
+  <si>
+    <t>7180/21</t>
+  </si>
+  <si>
+    <t>DTLT-07-21-0076</t>
+  </si>
+  <si>
+    <t>2021-07-18</t>
+  </si>
+  <si>
+    <t>Afectación a la planta exterior, por corte y sustracción de FO Carretera Moa - Baracoa</t>
+  </si>
+  <si>
+    <t>DTHO-07-21-0087</t>
   </si>
 </sst>
 </file>
@@ -612,7 +1563,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main">
   <sheetPr/>
-  <dimension ref="A1:K7"/>
+  <dimension ref="A1:K76"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="60" zoomScale="100" view="normal"/>
   </sheetViews>
@@ -681,19 +1632,19 @@
         <v>15</v>
       </c>
       <c r="F2" s="3">
-        <v>77.05</v>
+        <v>0</v>
       </c>
       <c r="G2" s="3">
-        <v>70.88</v>
+        <v>10.9</v>
       </c>
       <c r="H2" s="3">
-        <v>5</v>
+        <v>570</v>
       </c>
       <c r="I2" s="3" t="s">
         <v>16</v>
       </c>
       <c r="J2" s="3">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="K2" s="5" t="s">
         <v>17</v>
@@ -716,54 +1667,54 @@
         <v>22</v>
       </c>
       <c r="F3" s="3">
-        <v>146.42</v>
+        <v>0</v>
       </c>
       <c r="G3" s="3">
-        <v>532.87</v>
+        <v>1868</v>
       </c>
       <c r="H3" s="3">
-        <v>2</v>
+        <v>476</v>
       </c>
       <c r="I3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J3" s="3">
+        <v>50</v>
+      </c>
+      <c r="K3" s="5" t="s">
         <v>23</v>
-      </c>
-      <c r="J3" s="3">
-        <v>40</v>
-      </c>
-      <c r="K3" s="5" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="C4" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="D4" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="E4" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="F4" s="3">
+        <v>0</v>
+      </c>
+      <c r="G4" s="3">
+        <v>1250</v>
+      </c>
+      <c r="H4" s="3">
+        <v>1</v>
+      </c>
+      <c r="I4" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="F4" s="3">
-        <v>101.1</v>
-      </c>
-      <c r="G4" s="3">
-        <v>236.7</v>
-      </c>
-      <c r="H4" s="3">
-        <v>19</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>23</v>
-      </c>
       <c r="J4" s="3">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="K4" s="5" t="s">
         <v>30</v>
@@ -771,10 +1722,10 @@
     </row>
     <row r="5">
       <c r="A5" s="3" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>32</v>
@@ -786,19 +1737,19 @@
         <v>34</v>
       </c>
       <c r="F5" s="3">
-        <v>392</v>
+        <v>0</v>
       </c>
       <c r="G5" s="3">
-        <v>152.68</v>
+        <v>631.2</v>
       </c>
       <c r="H5" s="3">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="J5" s="3">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="K5" s="5" t="s">
         <v>35</v>
@@ -806,72 +1757,2481 @@
     </row>
     <row r="6">
       <c r="A6" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="F6" s="3">
+        <v>0</v>
+      </c>
+      <c r="G6" s="3">
+        <v>1157</v>
+      </c>
+      <c r="H6" s="3">
+        <v>0</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="J6" s="3">
+        <v>150</v>
+      </c>
+      <c r="K6" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F7" s="3">
+        <v>0</v>
+      </c>
+      <c r="G7" s="3">
+        <v>126</v>
+      </c>
+      <c r="H7" s="3">
+        <v>3</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J7" s="3">
+        <v>180</v>
+      </c>
+      <c r="K7" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="F8" s="3">
+        <v>0</v>
+      </c>
+      <c r="G8" s="3">
+        <v>100</v>
+      </c>
+      <c r="H8" s="3">
+        <v>0</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J8" s="3">
+        <v>1</v>
+      </c>
+      <c r="K8" s="5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="F9" s="3">
+        <v>0</v>
+      </c>
+      <c r="G9" s="3">
+        <v>1562</v>
+      </c>
+      <c r="H9" s="3">
+        <v>0</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="J9" s="3">
+        <v>150</v>
+      </c>
+      <c r="K9" s="5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="F10" s="3">
+        <v>0</v>
+      </c>
+      <c r="G10" s="3">
+        <v>337</v>
+      </c>
+      <c r="H10" s="3">
+        <v>5</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="J10" s="3">
+        <v>100</v>
+      </c>
+      <c r="K10" s="5" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="F11" s="3">
+        <v>0</v>
+      </c>
+      <c r="G11" s="3">
+        <v>66.5</v>
+      </c>
+      <c r="H11" s="3">
+        <v>1</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J11" s="3">
+        <v>95</v>
+      </c>
+      <c r="K11" s="5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="F12" s="3">
+        <v>0</v>
+      </c>
+      <c r="G12" s="3">
+        <v>3938.97</v>
+      </c>
+      <c r="H12" s="3">
+        <v>0</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="J12" s="3">
+        <v>800</v>
+      </c>
+      <c r="K12" s="5" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B13" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="F13" s="3">
+        <v>0</v>
+      </c>
+      <c r="G13" s="3">
+        <v>3030</v>
+      </c>
+      <c r="H13" s="3">
+        <v>0</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="J13" s="3">
+        <v>150</v>
+      </c>
+      <c r="K13" s="5" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
+        <v>377.52</v>
+      </c>
+      <c r="H14" s="3">
+        <v>14</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J14" s="3">
+        <v>660</v>
+      </c>
+      <c r="K14" s="5" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="F15" s="3">
+        <v>0</v>
+      </c>
+      <c r="G15" s="3">
+        <v>103.5</v>
+      </c>
+      <c r="H15" s="3">
+        <v>1</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="J15" s="3">
+        <v>50</v>
+      </c>
+      <c r="K15" s="5" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="F16" s="3">
+        <v>0</v>
+      </c>
+      <c r="G16" s="3">
+        <v>56</v>
+      </c>
+      <c r="H16" s="3">
+        <v>0</v>
+      </c>
+      <c r="I16" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="J16" s="3">
+        <v>12</v>
+      </c>
+      <c r="K16" s="5" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="B17" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="F17" s="3">
+        <v>0</v>
+      </c>
+      <c r="G17" s="3">
+        <v>156</v>
+      </c>
+      <c r="H17" s="3">
+        <v>1</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J17" s="3">
+        <v>13</v>
+      </c>
+      <c r="K17" s="5" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="F18" s="3">
+        <v>0</v>
+      </c>
+      <c r="G18" s="3">
+        <v>1342</v>
+      </c>
+      <c r="H18" s="3">
+        <v>0</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J18" s="3">
+        <v>100</v>
+      </c>
+      <c r="K18" s="5" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="F19" s="3">
+        <v>0</v>
+      </c>
+      <c r="G19" s="3">
+        <v>3000</v>
+      </c>
+      <c r="H19" s="3">
+        <v>0</v>
+      </c>
+      <c r="I19" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="J19" s="3">
+        <v>1500</v>
+      </c>
+      <c r="K19" s="5" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="F20" s="3">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3">
+        <v>1674.41</v>
+      </c>
+      <c r="H20" s="3">
+        <v>3</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J20" s="3">
+        <v>210</v>
+      </c>
+      <c r="K20" s="5" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="F21" s="3">
+        <v>0</v>
+      </c>
+      <c r="G21" s="3">
+        <v>615</v>
+      </c>
+      <c r="H21" s="3">
+        <v>0</v>
+      </c>
+      <c r="I21" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="J21" s="3">
+        <v>1550</v>
+      </c>
+      <c r="K21" s="5" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="F22" s="3">
+        <v>0</v>
+      </c>
+      <c r="G22" s="3">
+        <v>600</v>
+      </c>
+      <c r="H22" s="3">
+        <v>0</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="J22" s="3">
+        <v>200</v>
+      </c>
+      <c r="K22" s="5" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="F23" s="3">
+        <v>0</v>
+      </c>
+      <c r="G23" s="3">
+        <v>1037.86</v>
+      </c>
+      <c r="H23" s="3">
         <v>37</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="I23" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="J23" s="3">
+        <v>40</v>
+      </c>
+      <c r="K23" s="5" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="F24" s="3">
+        <v>0</v>
+      </c>
+      <c r="G24" s="3">
+        <v>1324.44</v>
+      </c>
+      <c r="H24" s="3">
+        <v>24</v>
+      </c>
+      <c r="I24" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="J24" s="3">
+        <v>1</v>
+      </c>
+      <c r="K24" s="5" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="F25" s="3">
+        <v>0</v>
+      </c>
+      <c r="G25" s="3">
+        <v>48.61</v>
+      </c>
+      <c r="H25" s="3">
+        <v>3</v>
+      </c>
+      <c r="I25" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J25" s="3">
+        <v>90</v>
+      </c>
+      <c r="K25" s="5" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="F26" s="3">
+        <v>0</v>
+      </c>
+      <c r="G26" s="3">
+        <v>303.03</v>
+      </c>
+      <c r="H26" s="3">
+        <v>110</v>
+      </c>
+      <c r="I26" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J26" s="3">
+        <v>1</v>
+      </c>
+      <c r="K26" s="5" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="F27" s="3">
+        <v>0</v>
+      </c>
+      <c r="G27" s="3">
+        <v>61.12</v>
+      </c>
+      <c r="H27" s="3">
+        <v>5</v>
+      </c>
+      <c r="I27" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J27" s="3">
+        <v>125</v>
+      </c>
+      <c r="K27" s="5" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="F28" s="3">
+        <v>0</v>
+      </c>
+      <c r="G28" s="3">
+        <v>501.57</v>
+      </c>
+      <c r="H28" s="3">
+        <v>0</v>
+      </c>
+      <c r="I28" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J28" s="3">
+        <v>1</v>
+      </c>
+      <c r="K28" s="5" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="F29" s="3">
+        <v>0</v>
+      </c>
+      <c r="G29" s="3">
+        <v>3980.18</v>
+      </c>
+      <c r="H29" s="3">
+        <v>215</v>
+      </c>
+      <c r="I29" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="J29" s="3">
+        <v>100</v>
+      </c>
+      <c r="K29" s="5" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="F30" s="3">
+        <v>0</v>
+      </c>
+      <c r="G30" s="3">
+        <v>0</v>
+      </c>
+      <c r="H30" s="3">
+        <v>0</v>
+      </c>
+      <c r="I30" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="J30" s="3">
+        <v>700</v>
+      </c>
+      <c r="K30" s="5" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="F31" s="3">
+        <v>0</v>
+      </c>
+      <c r="G31" s="3">
+        <v>131.66</v>
+      </c>
+      <c r="H31" s="3">
+        <v>43</v>
+      </c>
+      <c r="I31" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J31" s="3">
+        <v>1</v>
+      </c>
+      <c r="K31" s="5" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="F32" s="3">
+        <v>0</v>
+      </c>
+      <c r="G32" s="3">
+        <v>932.48</v>
+      </c>
+      <c r="H32" s="3">
+        <v>16</v>
+      </c>
+      <c r="I32" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J32" s="3">
+        <v>6</v>
+      </c>
+      <c r="K32" s="5" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="F33" s="3">
+        <v>0</v>
+      </c>
+      <c r="G33" s="3">
+        <v>493.66</v>
+      </c>
+      <c r="H33" s="3">
+        <v>0</v>
+      </c>
+      <c r="I33" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="J33" s="3">
+        <v>500</v>
+      </c>
+      <c r="K33" s="5" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="F34" s="3">
+        <v>0</v>
+      </c>
+      <c r="G34" s="3">
+        <v>1887.61</v>
+      </c>
+      <c r="H34" s="3">
+        <v>353</v>
+      </c>
+      <c r="I34" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J34" s="3">
+        <v>1</v>
+      </c>
+      <c r="K34" s="5" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="F35" s="3">
+        <v>0</v>
+      </c>
+      <c r="G35" s="3">
+        <v>360.25</v>
+      </c>
+      <c r="H35" s="3">
+        <v>0</v>
+      </c>
+      <c r="I35" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="J35" s="3">
+        <v>120</v>
+      </c>
+      <c r="K35" s="5" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="F36" s="3">
+        <v>0</v>
+      </c>
+      <c r="G36" s="3">
+        <v>0</v>
+      </c>
+      <c r="H36" s="3">
+        <v>0</v>
+      </c>
+      <c r="I36" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J36" s="3">
+        <v>1</v>
+      </c>
+      <c r="K36" s="5" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="F37" s="3">
+        <v>0</v>
+      </c>
+      <c r="G37" s="3">
+        <v>1373.79</v>
+      </c>
+      <c r="H37" s="3">
+        <v>1</v>
+      </c>
+      <c r="I37" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J37" s="3">
+        <v>200</v>
+      </c>
+      <c r="K37" s="5" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="F38" s="3">
+        <v>0</v>
+      </c>
+      <c r="G38" s="3">
+        <v>23.1</v>
+      </c>
+      <c r="H38" s="3">
+        <v>1</v>
+      </c>
+      <c r="I38" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J38" s="3">
+        <v>80</v>
+      </c>
+      <c r="K38" s="5" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="F39" s="3">
+        <v>0</v>
+      </c>
+      <c r="G39" s="3">
+        <v>87.6</v>
+      </c>
+      <c r="H39" s="3">
+        <v>2</v>
+      </c>
+      <c r="I39" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J39" s="3">
+        <v>120</v>
+      </c>
+      <c r="K39" s="5" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="F40" s="3">
+        <v>0</v>
+      </c>
+      <c r="G40" s="3">
+        <v>4624.1</v>
+      </c>
+      <c r="H40" s="3">
+        <v>350</v>
+      </c>
+      <c r="I40" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="J40" s="3">
+        <v>70</v>
+      </c>
+      <c r="K40" s="5" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="F41" s="3">
+        <v>0</v>
+      </c>
+      <c r="G41" s="3">
+        <v>595.55</v>
+      </c>
+      <c r="H41" s="3">
+        <v>0</v>
+      </c>
+      <c r="I41" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J41" s="3">
+        <v>1</v>
+      </c>
+      <c r="K41" s="5" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="F42" s="3">
+        <v>0</v>
+      </c>
+      <c r="G42" s="3">
+        <v>578</v>
+      </c>
+      <c r="H42" s="3">
+        <v>170</v>
+      </c>
+      <c r="I42" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="J42" s="3">
+        <v>200</v>
+      </c>
+      <c r="K42" s="5" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="F43" s="3">
+        <v>0</v>
+      </c>
+      <c r="G43" s="3">
+        <v>2418.06</v>
+      </c>
+      <c r="H43" s="3">
+        <v>0</v>
+      </c>
+      <c r="I43" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="J43" s="3">
+        <v>500</v>
+      </c>
+      <c r="K43" s="5" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="F44" s="3">
+        <v>0</v>
+      </c>
+      <c r="G44" s="3">
+        <v>130</v>
+      </c>
+      <c r="H44" s="3">
+        <v>0</v>
+      </c>
+      <c r="I44" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="J44" s="3">
+        <v>100</v>
+      </c>
+      <c r="K44" s="5" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="F45" s="3">
+        <v>0</v>
+      </c>
+      <c r="G45" s="3">
+        <v>88.19</v>
+      </c>
+      <c r="H45" s="3">
+        <v>2</v>
+      </c>
+      <c r="I45" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J45" s="3">
+        <v>32</v>
+      </c>
+      <c r="K45" s="5" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="F46" s="3">
+        <v>0</v>
+      </c>
+      <c r="G46" s="3">
+        <v>3373.78</v>
+      </c>
+      <c r="H46" s="3">
+        <v>189</v>
+      </c>
+      <c r="I46" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J46" s="3">
+        <v>1</v>
+      </c>
+      <c r="K46" s="5" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="F47" s="3">
+        <v>0</v>
+      </c>
+      <c r="G47" s="3">
+        <v>4.34</v>
+      </c>
+      <c r="H47" s="3">
+        <v>1</v>
+      </c>
+      <c r="I47" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J47" s="3">
+        <v>100</v>
+      </c>
+      <c r="K47" s="5" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="D48" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E6" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="F6" s="3">
-        <v>21.5</v>
-      </c>
-      <c r="G6" s="3">
-        <v>0</v>
-      </c>
-      <c r="H6" s="3">
+      <c r="E48" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="F48" s="3">
+        <v>0</v>
+      </c>
+      <c r="G48" s="3">
+        <v>210</v>
+      </c>
+      <c r="H48" s="3">
         <v>2</v>
       </c>
-      <c r="I6" s="3" t="s">
+      <c r="I48" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J48" s="3">
+        <v>280</v>
+      </c>
+      <c r="K48" s="5" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="F49" s="3">
+        <v>0</v>
+      </c>
+      <c r="G49" s="3">
+        <v>723.14</v>
+      </c>
+      <c r="H49" s="3">
+        <v>4</v>
+      </c>
+      <c r="I49" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="J49" s="3">
+        <v>200</v>
+      </c>
+      <c r="K49" s="5" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="C50" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="E50" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="F50" s="3">
+        <v>0</v>
+      </c>
+      <c r="G50" s="3">
+        <v>343.87</v>
+      </c>
+      <c r="H50" s="3">
+        <v>2</v>
+      </c>
+      <c r="I50" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J50" s="3">
+        <v>140</v>
+      </c>
+      <c r="K50" s="5" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="C51" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="E51" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="F51" s="3">
+        <v>0</v>
+      </c>
+      <c r="G51" s="3">
+        <v>1000</v>
+      </c>
+      <c r="H51" s="3">
+        <v>22</v>
+      </c>
+      <c r="I51" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="J51" s="3">
+        <v>1000</v>
+      </c>
+      <c r="K51" s="5" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="E52" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="F52" s="3">
+        <v>0</v>
+      </c>
+      <c r="G52" s="3">
+        <v>430.25</v>
+      </c>
+      <c r="H52" s="3">
+        <v>1</v>
+      </c>
+      <c r="I52" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="J52" s="3">
+        <v>240</v>
+      </c>
+      <c r="K52" s="5" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="C53" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="E53" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="F53" s="3">
+        <v>0</v>
+      </c>
+      <c r="G53" s="3">
+        <v>66.27</v>
+      </c>
+      <c r="H53" s="3">
+        <v>1</v>
+      </c>
+      <c r="I53" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J53" s="3">
+        <v>24</v>
+      </c>
+      <c r="K53" s="5" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="C54" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E54" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="F54" s="3">
+        <v>0</v>
+      </c>
+      <c r="G54" s="3">
+        <v>1300.53</v>
+      </c>
+      <c r="H54" s="3">
+        <v>5</v>
+      </c>
+      <c r="I54" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="J54" s="3">
+        <v>60</v>
+      </c>
+      <c r="K54" s="5" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="C55" s="4" t="s">
+        <v>272</v>
+      </c>
+      <c r="D55" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="E55" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="F55" s="3">
+        <v>0</v>
+      </c>
+      <c r="G55" s="3">
+        <v>1695.33</v>
+      </c>
+      <c r="H55" s="3">
+        <v>0</v>
+      </c>
+      <c r="I55" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="J55" s="3">
+        <v>1200</v>
+      </c>
+      <c r="K55" s="5" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="C56" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="D56" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="E56" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="F56" s="3">
+        <v>0</v>
+      </c>
+      <c r="G56" s="3">
+        <v>920.15</v>
+      </c>
+      <c r="H56" s="3">
+        <v>1</v>
+      </c>
+      <c r="I56" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="J56" s="3">
+        <v>460</v>
+      </c>
+      <c r="K56" s="5" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="C57" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="D57" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="E57" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="F57" s="3">
+        <v>0</v>
+      </c>
+      <c r="G57" s="3">
+        <v>309.9</v>
+      </c>
+      <c r="H57" s="3">
+        <v>1</v>
+      </c>
+      <c r="I57" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J57" s="3">
+        <v>100</v>
+      </c>
+      <c r="K57" s="5" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="C58" s="4" t="s">
+        <v>286</v>
+      </c>
+      <c r="D58" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="F58" s="3">
+        <v>0</v>
+      </c>
+      <c r="G58" s="3">
+        <v>324.3</v>
+      </c>
+      <c r="H58" s="3">
+        <v>2</v>
+      </c>
+      <c r="I58" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J58" s="3">
+        <v>300</v>
+      </c>
+      <c r="K58" s="5" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="C59" s="4" t="s">
+        <v>291</v>
+      </c>
+      <c r="D59" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E59" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="F59" s="3">
+        <v>0</v>
+      </c>
+      <c r="G59" s="3">
+        <v>131.1</v>
+      </c>
+      <c r="H59" s="3">
+        <v>1</v>
+      </c>
+      <c r="I59" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J59" s="3">
+        <v>30</v>
+      </c>
+      <c r="K59" s="5" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="C60" s="4" t="s">
+        <v>295</v>
+      </c>
+      <c r="D60" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="E60" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="F60" s="3">
+        <v>0</v>
+      </c>
+      <c r="G60" s="3">
+        <v>450</v>
+      </c>
+      <c r="H60" s="3">
+        <v>0</v>
+      </c>
+      <c r="I60" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="J60" s="3">
+        <v>450</v>
+      </c>
+      <c r="K60" s="5" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="C61" s="4" t="s">
+        <v>299</v>
+      </c>
+      <c r="D61" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E61" s="3" t="s">
+        <v>300</v>
+      </c>
+      <c r="F61" s="3">
+        <v>0</v>
+      </c>
+      <c r="G61" s="3">
+        <v>350.8</v>
+      </c>
+      <c r="H61" s="3">
+        <v>1</v>
+      </c>
+      <c r="I61" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="J61" s="3">
+        <v>50</v>
+      </c>
+      <c r="K61" s="5" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="C62" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="D62" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="E62" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="F62" s="3">
+        <v>0</v>
+      </c>
+      <c r="G62" s="3">
+        <v>372.17</v>
+      </c>
+      <c r="H62" s="3">
+        <v>5</v>
+      </c>
+      <c r="I62" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J62" s="3">
+        <v>100</v>
+      </c>
+      <c r="K62" s="5" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="C63" s="4" t="s">
+        <v>306</v>
+      </c>
+      <c r="D63" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="E63" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="F63" s="3">
+        <v>0</v>
+      </c>
+      <c r="G63" s="3">
+        <v>189.58</v>
+      </c>
+      <c r="H63" s="3">
+        <v>1</v>
+      </c>
+      <c r="I63" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J63" s="3">
+        <v>50</v>
+      </c>
+      <c r="K63" s="5" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="B64" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="C64" s="4" t="s">
+        <v>311</v>
+      </c>
+      <c r="D64" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="E64" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="F64" s="3">
+        <v>0</v>
+      </c>
+      <c r="G64" s="3">
+        <v>0</v>
+      </c>
+      <c r="H64" s="3">
+        <v>1</v>
+      </c>
+      <c r="I64" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="J64" s="3">
+        <v>900</v>
+      </c>
+      <c r="K64" s="5" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B65" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="C65" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="D65" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E65" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="F65" s="3">
+        <v>0</v>
+      </c>
+      <c r="G65" s="3">
+        <v>1560.35</v>
+      </c>
+      <c r="H65" s="3">
+        <v>15</v>
+      </c>
+      <c r="I65" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="J65" s="3">
+        <v>60</v>
+      </c>
+      <c r="K65" s="5" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="B66" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="C66" s="4" t="s">
+        <v>318</v>
+      </c>
+      <c r="D66" s="3" t="s">
+        <v>319</v>
+      </c>
+      <c r="E66" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="F66" s="3">
+        <v>0</v>
+      </c>
+      <c r="G66" s="3">
+        <v>797.75</v>
+      </c>
+      <c r="H66" s="3">
+        <v>0</v>
+      </c>
+      <c r="I66" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="J66" s="3">
+        <v>600</v>
+      </c>
+      <c r="K66" s="5" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="B67" s="3" t="s">
+        <v>322</v>
+      </c>
+      <c r="C67" s="4" t="s">
+        <v>323</v>
+      </c>
+      <c r="D67" s="3" t="s">
+        <v>324</v>
+      </c>
+      <c r="E67" s="3"/>
+      <c r="F67" s="3">
+        <v>0</v>
+      </c>
+      <c r="G67" s="3">
+        <v>0</v>
+      </c>
+      <c r="H67" s="3">
+        <v>1</v>
+      </c>
+      <c r="I67" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J67" s="3">
+        <v>200</v>
+      </c>
+      <c r="K67" s="5" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B68" s="3" t="s">
+        <v>326</v>
+      </c>
+      <c r="C68" s="4" t="s">
+        <v>327</v>
+      </c>
+      <c r="D68" s="3" t="s">
+        <v>328</v>
+      </c>
+      <c r="E68" s="3" t="s">
+        <v>329</v>
+      </c>
+      <c r="F68" s="3">
+        <v>0</v>
+      </c>
+      <c r="G68" s="3">
+        <v>0</v>
+      </c>
+      <c r="H68" s="3">
+        <v>0</v>
+      </c>
+      <c r="I68" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="J6" s="3">
+      <c r="J68" s="3">
+        <v>1</v>
+      </c>
+      <c r="K68" s="5" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="B69" s="3" t="s">
+        <v>331</v>
+      </c>
+      <c r="C69" s="4" t="s">
+        <v>332</v>
+      </c>
+      <c r="D69" s="3" t="s">
+        <v>324</v>
+      </c>
+      <c r="E69" s="3" t="s">
+        <v>333</v>
+      </c>
+      <c r="F69" s="3">
+        <v>0</v>
+      </c>
+      <c r="G69" s="3">
+        <v>500</v>
+      </c>
+      <c r="H69" s="3">
+        <v>1</v>
+      </c>
+      <c r="I69" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J69" s="3">
+        <v>50</v>
+      </c>
+      <c r="K69" s="5" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="B70" s="3" t="s">
+        <v>331</v>
+      </c>
+      <c r="C70" s="4" t="s">
+        <v>336</v>
+      </c>
+      <c r="D70" s="3" t="s">
+        <v>337</v>
+      </c>
+      <c r="E70" s="3" t="s">
+        <v>338</v>
+      </c>
+      <c r="F70" s="3">
+        <v>0</v>
+      </c>
+      <c r="G70" s="3">
+        <v>0</v>
+      </c>
+      <c r="H70" s="3">
+        <v>3</v>
+      </c>
+      <c r="I70" s="3" t="s">
+        <v>339</v>
+      </c>
+      <c r="J70" s="3">
+        <v>1</v>
+      </c>
+      <c r="K70" s="5" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B71" s="3" t="s">
+        <v>341</v>
+      </c>
+      <c r="C71" s="4" t="s">
+        <v>342</v>
+      </c>
+      <c r="D71" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E71" s="3"/>
+      <c r="F71" s="3">
+        <v>0</v>
+      </c>
+      <c r="G71" s="3">
+        <v>0</v>
+      </c>
+      <c r="H71" s="3">
+        <v>214</v>
+      </c>
+      <c r="I71" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="J71" s="3">
+        <v>300</v>
+      </c>
+      <c r="K71" s="5" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B72" s="3" t="s">
+        <v>344</v>
+      </c>
+      <c r="C72" s="4" t="s">
+        <v>345</v>
+      </c>
+      <c r="D72" s="3" t="s">
+        <v>346</v>
+      </c>
+      <c r="E72" s="3" t="s">
+        <v>347</v>
+      </c>
+      <c r="F72" s="3">
+        <v>0</v>
+      </c>
+      <c r="G72" s="3">
+        <v>0</v>
+      </c>
+      <c r="H72" s="3">
+        <v>0</v>
+      </c>
+      <c r="I72" s="3" t="s">
+        <v>348</v>
+      </c>
+      <c r="J72" s="3">
+        <v>2</v>
+      </c>
+      <c r="K72" s="5" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B73" s="3" t="s">
+        <v>350</v>
+      </c>
+      <c r="C73" s="4" t="s">
+        <v>351</v>
+      </c>
+      <c r="D73" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E73" s="3" t="s">
+        <v>352</v>
+      </c>
+      <c r="F73" s="3">
+        <v>0</v>
+      </c>
+      <c r="G73" s="3">
+        <v>0</v>
+      </c>
+      <c r="H73" s="3">
+        <v>8</v>
+      </c>
+      <c r="I73" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J73" s="3">
+        <v>280</v>
+      </c>
+      <c r="K73" s="5" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B74" s="3" t="s">
+        <v>350</v>
+      </c>
+      <c r="C74" s="4" t="s">
+        <v>354</v>
+      </c>
+      <c r="D74" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E74" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="F74" s="3">
+        <v>0</v>
+      </c>
+      <c r="G74" s="3">
+        <v>0</v>
+      </c>
+      <c r="H74" s="3">
+        <v>11</v>
+      </c>
+      <c r="I74" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="J74" s="3">
+        <v>1</v>
+      </c>
+      <c r="K74" s="5" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="K6" s="5" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="F7" s="6">
-        <v>0</v>
-      </c>
-      <c r="G7" s="6">
-        <v>224.91</v>
-      </c>
-      <c r="H7" s="6">
-        <v>0</v>
-      </c>
-      <c r="I7" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="J7" s="6">
-        <v>350</v>
-      </c>
-      <c r="K7" s="8" t="s">
-        <v>46</v>
+      <c r="B75" s="3" t="s">
+        <v>357</v>
+      </c>
+      <c r="C75" s="4" t="s">
+        <v>358</v>
+      </c>
+      <c r="D75" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="E75" s="3" t="s">
+        <v>359</v>
+      </c>
+      <c r="F75" s="3">
+        <v>0</v>
+      </c>
+      <c r="G75" s="3">
+        <v>0</v>
+      </c>
+      <c r="H75" s="3">
+        <v>0</v>
+      </c>
+      <c r="I75" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="J75" s="3">
+        <v>50</v>
+      </c>
+      <c r="K75" s="5" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="B76" s="6" t="s">
+        <v>361</v>
+      </c>
+      <c r="C76" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="D76" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="E76" s="6"/>
+      <c r="F76" s="6">
+        <v>0</v>
+      </c>
+      <c r="G76" s="6">
+        <v>0</v>
+      </c>
+      <c r="H76" s="6">
+        <v>16</v>
+      </c>
+      <c r="I76" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="J76" s="6">
+        <v>4</v>
+      </c>
+      <c r="K76" s="8" t="s">
+        <v>363</v>
       </c>
     </row>
   </sheetData>

--- a/src/informesGenerados/PextListado.xlsx
+++ b/src/informesGenerados/PextListado.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="103">
   <si>
     <t>Unidad Organizativa</t>
   </si>
@@ -49,190 +49,280 @@
     <t>CDNT</t>
   </si>
   <si>
-    <t>DTHO</t>
-  </si>
-  <si>
-    <t>2019-05-02</t>
-  </si>
-  <si>
-    <t>Afectación a la planta exterior por  corte  y sustracción de FO Carretera Naranjo Agrio-Alcarraza, entre 4 Caminos y Zarza Arriba</t>
-  </si>
-  <si>
-    <t>Sagua de Tánamo</t>
-  </si>
-  <si>
-    <t>7436/19</t>
+    <t>DTSR</t>
+  </si>
+  <si>
+    <t>2020-02-03</t>
+  </si>
+  <si>
+    <t>Afectación a la planta exterior por  corte y sustracción de unbajante telefónico Calle San José</t>
+  </si>
+  <si>
+    <t>Arroyo Naranjo</t>
+  </si>
+  <si>
+    <t>6877/20</t>
+  </si>
+  <si>
+    <t>Bajante telefónico</t>
+  </si>
+  <si>
+    <t>DVLH-02-20-0022</t>
+  </si>
+  <si>
+    <t>Afectación a la planta exterior por  corte de un cable telefónico de 50 pares Calle Silvia  y Concordia</t>
+  </si>
+  <si>
+    <t>Cable telefónico</t>
+  </si>
+  <si>
+    <t>DVLH-02-20-0023</t>
+  </si>
+  <si>
+    <t>DTSC</t>
+  </si>
+  <si>
+    <t>2020-02-04</t>
+  </si>
+  <si>
+    <t>Afectación a la planta exterior por  corte y sustracción de unbajante telefónico Entrada de Dos Caminos. Lateral de la UBPC</t>
+  </si>
+  <si>
+    <t>San Luis (SC)</t>
+  </si>
+  <si>
+    <t>2047/20</t>
+  </si>
+  <si>
+    <t>DTSC-02-20-0015</t>
+  </si>
+  <si>
+    <t>2020-02-05</t>
+  </si>
+  <si>
+    <t>Afectación a la planta exterior por  corte de un cable telefónico de 100 pares Calle Morris, entre Pasaje A y José Miguel</t>
+  </si>
+  <si>
+    <t>7188/20</t>
+  </si>
+  <si>
+    <t>DVLH-02-20-0024</t>
+  </si>
+  <si>
+    <t>DTCM</t>
+  </si>
+  <si>
+    <t>2020-02-07</t>
+  </si>
+  <si>
+    <t>Afectación a la planta exterior por  corte y sustracción de FO (aérea) Carretera Camagüey Minas</t>
+  </si>
+  <si>
+    <t>Camagüey</t>
+  </si>
+  <si>
+    <t>13/20</t>
   </si>
   <si>
     <t>Fibra óptica</t>
   </si>
   <si>
-    <t>DTHO-05-19-0033</t>
-  </si>
-  <si>
-    <t>DTSC</t>
-  </si>
-  <si>
-    <t>2019-05-09</t>
-  </si>
-  <si>
-    <t>Afectación a la planta exterior por  corte  y sustracción de cable de cobre Localidad Guaranal. Contramaestre</t>
-  </si>
-  <si>
-    <t>Contramaestre</t>
-  </si>
-  <si>
-    <t>6935/19</t>
-  </si>
-  <si>
-    <t>Alambre de cobre</t>
-  </si>
-  <si>
-    <t>DTSC-05-19-0033</t>
-  </si>
-  <si>
-    <t>DTAR</t>
-  </si>
-  <si>
-    <t>2019-05-13</t>
-  </si>
-  <si>
-    <t>Afectación a la planta exterior por  corte  de FO Carretera Bahía Honda Cabañas</t>
-  </si>
-  <si>
-    <t>Bahía Honda</t>
-  </si>
-  <si>
-    <t>3880/19</t>
-  </si>
-  <si>
-    <t>DTAR-05-19-0052</t>
-  </si>
-  <si>
-    <t>Afectación a la planta exterior por  corte  y sustracción bajante telefónico Mariana de la Torre</t>
-  </si>
-  <si>
-    <t>Holguín</t>
-  </si>
-  <si>
-    <t>8189/19</t>
-  </si>
-  <si>
-    <t>Bajante telefónico</t>
-  </si>
-  <si>
-    <t>DTHO-05-19-0037</t>
-  </si>
-  <si>
-    <t>2019-05-14</t>
-  </si>
-  <si>
-    <t>Afectación a la planta exterior por  corte  y sustracción de bitubo de FO Carretera a San Germán</t>
-  </si>
-  <si>
-    <t>Urbano Noris</t>
-  </si>
-  <si>
-    <t>8156/19</t>
-  </si>
-  <si>
-    <t>DTHO-05-19-0038</t>
-  </si>
-  <si>
-    <t>2019-05-15</t>
-  </si>
-  <si>
-    <t>Afectación a la planta exterior por  corte  y sustracción de cable tensor Carretera San Germán a 1 Km del vertedero</t>
-  </si>
-  <si>
-    <t>8126/19</t>
+    <t>DTCM-02-20-0012</t>
+  </si>
+  <si>
+    <t>2020-02-10</t>
+  </si>
+  <si>
+    <t>Afectación a la planta exterior por  corte de un cable aéreo de 100 pares, por segunda ocación Calle Silvia, entre Concordia y San Agustín</t>
+  </si>
+  <si>
+    <t>8249/20</t>
+  </si>
+  <si>
+    <t>DVLH-02-20-0028</t>
+  </si>
+  <si>
+    <t>Afectación a la planta exterior por  corte de 2 cables aeréos de 30 y 100 pares respectivamente Calle Morris y Pasaje B</t>
+  </si>
+  <si>
+    <t>DVLH-02-20-0029</t>
+  </si>
+  <si>
+    <t>DTSS</t>
+  </si>
+  <si>
+    <t>2020-02-11</t>
+  </si>
+  <si>
+    <t>Afectación a la planta exterior por  sustracción de 2 tapas de registros Localidad de Topes de Collantes</t>
+  </si>
+  <si>
+    <t>Trinidad</t>
+  </si>
+  <si>
+    <t>1460/20</t>
+  </si>
+  <si>
+    <t>Tensor de anclaje</t>
+  </si>
+  <si>
+    <t>DTSS-02-20-0029</t>
+  </si>
+  <si>
+    <t>DTMZ</t>
+  </si>
+  <si>
+    <t>2020-02-13</t>
+  </si>
+  <si>
+    <t>Afectación a la planta exterior por  corte y sustracción de tensor Carretera San Miguel de los Baños a Coliseo</t>
+  </si>
+  <si>
+    <t>Jovellanos</t>
+  </si>
+  <si>
+    <t>2067/20</t>
   </si>
   <si>
     <t>Tensor</t>
   </si>
   <si>
-    <t>DTHO-05-19-0039</t>
+    <t>DTMZ-02-20-0016</t>
+  </si>
+  <si>
+    <t>2020-02-14</t>
+  </si>
+  <si>
+    <t>Afectación a la planta exterior por  corte de cable aéreo de 400 pares Cale José Miguel, entre Pasaje D y Concordia</t>
+  </si>
+  <si>
+    <t>9099/20</t>
+  </si>
+  <si>
+    <t>DVLH-02-20-0032</t>
+  </si>
+  <si>
+    <t>Afectación a la planta exterior por  corte de cable aéreo de 50 pares Calle Rosell, entre Mendoza y Arellano</t>
+  </si>
+  <si>
+    <t>DVLH-02-20-0033</t>
   </si>
   <si>
     <t>DTGR</t>
   </si>
   <si>
-    <t>2019-05-28</t>
-  </si>
-  <si>
-    <t>Afectación a la planta exterior por  corte  y sustracción de Bajante telefónico Calle Manuel de Socorro No. 730,  entre Mariana Grajales y Roberto Reyes</t>
+    <t>2020-02-16</t>
+  </si>
+  <si>
+    <t>Afectación a la planta exterior por  corte y sustracción de bajante telefónico Calle 46, entre 26 de Julio y 19</t>
   </si>
   <si>
     <t>Bayamo</t>
   </si>
   <si>
-    <t>5877/19</t>
-  </si>
-  <si>
-    <t>DTGR-05-19-0051</t>
-  </si>
-  <si>
-    <t>2019-05-29</t>
-  </si>
-  <si>
-    <t>Afectación a la planta exterior por  corte  y sustracción de Bajante telefónico Calle 26 de Julio, entre 2da y Osvaldo Lara</t>
-  </si>
-  <si>
-    <t>5903/19</t>
-  </si>
-  <si>
-    <t>DTGR-05-19-0052</t>
-  </si>
-  <si>
-    <t>DTVC</t>
-  </si>
-  <si>
-    <t>Afectación a la planta exterior por  corte  de FO aérea Ave. Ismaelillo y Callejón de Los Caneyes</t>
-  </si>
-  <si>
-    <t>Santa Clara</t>
-  </si>
-  <si>
-    <t>5574/19</t>
-  </si>
-  <si>
-    <t>DTVC-05-19-0113</t>
-  </si>
-  <si>
-    <t>DTSR</t>
-  </si>
-  <si>
-    <t>2019-05-30</t>
-  </si>
-  <si>
-    <t>Afectación a la planta exterior por  corte  y sustracción de Bajante telefónico Carretera Santa Maria del Rosario y 8 Vías</t>
-  </si>
-  <si>
-    <t>Cotorro</t>
-  </si>
-  <si>
-    <t>35381/19</t>
-  </si>
-  <si>
-    <t>DVLH-05-19-0117</t>
-  </si>
-  <si>
-    <t>2019-05-31</t>
-  </si>
-  <si>
-    <t>Afectación a la planta exterior por  corte de cable autosoportado de 50 pares Km 4 1/2. Carretera de Mar Verde</t>
-  </si>
-  <si>
-    <t>Santiago de Cuba</t>
-  </si>
-  <si>
-    <t>8098/19</t>
-  </si>
-  <si>
-    <t>Cable telefónico</t>
-  </si>
-  <si>
-    <t>DTSC-05-19-0041</t>
+    <t>2029/20</t>
+  </si>
+  <si>
+    <t>DTGR-02-20-0018</t>
+  </si>
+  <si>
+    <t>2020-02-18</t>
+  </si>
+  <si>
+    <t>Afectación a la planta exterior por  corte de FO Calle Isabel, entre Sofia y Estela</t>
+  </si>
+  <si>
+    <t>10020/20</t>
+  </si>
+  <si>
+    <t>DVLH-02-20-0039</t>
+  </si>
+  <si>
+    <t>2020-02-27</t>
+  </si>
+  <si>
+    <t>Afectación a la planta exterior por  corte y sustracción de bajante telefónico Calle Cisnero No . 411,  entre Camilo Cienfuegos y 1ra</t>
+  </si>
+  <si>
+    <t>Palma Soriano</t>
+  </si>
+  <si>
+    <t>3139/20</t>
+  </si>
+  <si>
+    <t>DTSC-02-20-0022</t>
+  </si>
+  <si>
+    <t>2020-02-22</t>
+  </si>
+  <si>
+    <t>Afectación a la planta exterior por   sustracción de 2 AP (wifi) Calle 9, entre 3ra y Avenida Granma</t>
+  </si>
+  <si>
+    <t>2290/20</t>
+  </si>
+  <si>
+    <t>Cable simétrico</t>
+  </si>
+  <si>
+    <t>DTGR-02-20-0026</t>
+  </si>
+  <si>
+    <t>Afectación a la planta exterior por  sustracción de AP (wifi) Calle 11</t>
+  </si>
+  <si>
+    <t>DTGR-02-20-0027</t>
+  </si>
+  <si>
+    <t>Afectación a la planta exterior por  corte  de 5 cables multipar Calle Victoria, entre San Agustín y Unión</t>
+  </si>
+  <si>
+    <t>10947/20</t>
+  </si>
+  <si>
+    <t>DVLH-02-20-0045</t>
+  </si>
+  <si>
+    <t>DTMY</t>
+  </si>
+  <si>
+    <t>2020-02-25</t>
+  </si>
+  <si>
+    <t>Afectación a la planta exterior por  corte y sustracción de alambre de coser Carretera de San Felipe</t>
+  </si>
+  <si>
+    <t>Quivicán</t>
+  </si>
+  <si>
+    <t>1330/20</t>
+  </si>
+  <si>
+    <t>Alambre de coser</t>
+  </si>
+  <si>
+    <t>DTMY-02-20-0012</t>
+  </si>
+  <si>
+    <t>Afectación a la planta exterior por corte a 4 cables multipar(2 de 400 pares y 2 de 200 pares) Calle 100 y Autopista Oeste.</t>
+  </si>
+  <si>
+    <t>11603</t>
+  </si>
+  <si>
+    <t>DVLH-02-20-0048</t>
+  </si>
+  <si>
+    <t>2020-02-28</t>
+  </si>
+  <si>
+    <t>Afectación a la planta exterior por corte y sustracción de  alambre spring Ruta La Carlota la Mulata</t>
+  </si>
+  <si>
+    <t>2719/20</t>
+  </si>
+  <si>
+    <t>DTMZ-02-20-0020</t>
   </si>
 </sst>
 </file>
@@ -690,7 +780,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main">
   <sheetPr/>
-  <dimension ref="A1:K12"/>
+  <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="60" zoomScale="100" view="normal"/>
   </sheetViews>
@@ -759,19 +849,19 @@
         <v>15</v>
       </c>
       <c r="F2" s="3">
-        <v>260.4</v>
+        <v>0</v>
       </c>
       <c r="G2" s="3">
-        <v>359.68</v>
+        <v>0</v>
       </c>
       <c r="H2" s="3">
-        <v>196</v>
+        <v>8</v>
       </c>
       <c r="I2" s="3" t="s">
         <v>16</v>
       </c>
       <c r="J2" s="3">
-        <v>1</v>
+        <v>400</v>
       </c>
       <c r="K2" s="5" t="s">
         <v>17</v>
@@ -779,72 +869,72 @@
     </row>
     <row r="3">
       <c r="A3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="D3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="3">
+        <v>0</v>
+      </c>
+      <c r="G3" s="3">
+        <v>0</v>
+      </c>
+      <c r="H3" s="3">
+        <v>8</v>
+      </c>
+      <c r="I3" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="J3" s="3">
+        <v>50</v>
+      </c>
+      <c r="K3" s="5" t="s">
         <v>20</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F3" s="3">
-        <v>7320.96</v>
-      </c>
-      <c r="G3" s="3">
-        <v>375.1</v>
-      </c>
-      <c r="H3" s="3">
-        <v>2</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="J3" s="3">
-        <v>60</v>
-      </c>
-      <c r="K3" s="5" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>29</v>
-      </c>
       <c r="F4" s="3">
-        <v>17.16</v>
+        <v>45.56</v>
       </c>
       <c r="G4" s="3">
-        <v>294.63</v>
+        <v>56.92</v>
       </c>
       <c r="H4" s="3">
-        <v>238</v>
+        <v>3</v>
       </c>
       <c r="I4" s="3" t="s">
         <v>16</v>
       </c>
       <c r="J4" s="3">
-        <v>1</v>
+        <v>130</v>
       </c>
       <c r="K4" s="5" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5">
@@ -852,69 +942,69 @@
         <v>11</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="F5" s="3">
-        <v>18.75</v>
+        <v>249</v>
       </c>
       <c r="G5" s="3">
-        <v>0</v>
+        <v>1466.85</v>
       </c>
       <c r="H5" s="3">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="J5" s="3">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="K5" s="5" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="3" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="B6" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="F6" s="3">
+        <v>226.7</v>
+      </c>
+      <c r="G6" s="3">
+        <v>6174.55</v>
+      </c>
+      <c r="H6" s="3">
+        <v>140</v>
+      </c>
+      <c r="I6" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="J6" s="3">
+        <v>19</v>
+      </c>
+      <c r="K6" s="5" t="s">
         <v>37</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="F6" s="3">
-        <v>3.25</v>
-      </c>
-      <c r="G6" s="3">
-        <v>0</v>
-      </c>
-      <c r="H6" s="3">
-        <v>0</v>
-      </c>
-      <c r="I6" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="J6" s="3">
-        <v>13</v>
-      </c>
-      <c r="K6" s="5" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="7">
@@ -922,209 +1012,524 @@
         <v>11</v>
       </c>
       <c r="B7" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="F7" s="3">
+        <v>0</v>
+      </c>
+      <c r="G7" s="3">
+        <v>0</v>
+      </c>
+      <c r="H7" s="3">
+        <v>15</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J7" s="3">
+        <v>60</v>
+      </c>
+      <c r="K7" s="5" t="s">
         <v>41</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="F7" s="3">
-        <v>0</v>
-      </c>
-      <c r="G7" s="3">
-        <v>0</v>
-      </c>
-      <c r="H7" s="3">
-        <v>0</v>
-      </c>
-      <c r="I7" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="J7" s="3">
-        <v>50</v>
-      </c>
-      <c r="K7" s="5" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="3" t="s">
-        <v>46</v>
+        <v>11</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>49</v>
+        <v>14</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="F8" s="3">
-        <v>6.04</v>
+        <v>0</v>
       </c>
       <c r="G8" s="3">
-        <v>4.95</v>
+        <v>0</v>
       </c>
       <c r="H8" s="3">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="J8" s="3">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="K8" s="5" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C9" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="B9" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>53</v>
-      </c>
       <c r="D9" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="F9" s="3">
+        <v>0</v>
+      </c>
+      <c r="G9" s="3">
+        <v>0</v>
+      </c>
+      <c r="H9" s="3">
+        <v>0</v>
+      </c>
+      <c r="I9" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="E9" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="F9" s="3">
-        <v>59.12</v>
-      </c>
-      <c r="G9" s="3">
-        <v>57.42</v>
-      </c>
-      <c r="H9" s="3">
-        <v>5</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>34</v>
-      </c>
       <c r="J9" s="3">
-        <v>350</v>
+        <v>2</v>
       </c>
       <c r="K9" s="5" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="3" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>52</v>
       </c>
       <c r="C10" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="F10" s="3">
+        <v>0</v>
+      </c>
+      <c r="G10" s="3">
+        <v>0</v>
+      </c>
+      <c r="H10" s="3">
+        <v>2</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="J10" s="3">
+        <v>250</v>
+      </c>
+      <c r="K10" s="5" t="s">
         <v>57</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="F10" s="3">
-        <v>570.32</v>
-      </c>
-      <c r="G10" s="3">
-        <v>166.82</v>
-      </c>
-      <c r="H10" s="3">
-        <v>1</v>
-      </c>
-      <c r="I10" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="J10" s="3">
-        <v>1</v>
-      </c>
-      <c r="K10" s="5" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="3" t="s">
-        <v>61</v>
+        <v>11</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>64</v>
+        <v>14</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="F11" s="3">
-        <v>18.72</v>
+        <v>1917.6</v>
       </c>
       <c r="G11" s="3">
-        <v>149.41</v>
+        <v>22313.7</v>
       </c>
       <c r="H11" s="3">
-        <v>1</v>
+        <v>400</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="J11" s="3">
         <v>60</v>
       </c>
       <c r="K11" s="5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="F12" s="3">
+        <v>0</v>
+      </c>
+      <c r="G12" s="3">
+        <v>0</v>
+      </c>
+      <c r="H12" s="3">
+        <v>50</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J12" s="3">
+        <v>140</v>
+      </c>
+      <c r="K12" s="5" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C13" s="4" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B12" s="6" t="s">
+      <c r="D13" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="C12" s="7" t="s">
+      <c r="E13" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="D12" s="6" t="s">
+      <c r="F13" s="3">
+        <v>17.05</v>
+      </c>
+      <c r="G13" s="3">
+        <v>9.08</v>
+      </c>
+      <c r="H13" s="3">
+        <v>1</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J13" s="3">
+        <v>50</v>
+      </c>
+      <c r="K13" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="E12" s="6" t="s">
+    </row>
+    <row r="14">
+      <c r="A14" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="F12" s="6">
+      <c r="C14" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="J14" s="3">
+        <v>600</v>
+      </c>
+      <c r="K14" s="5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="F15" s="3">
+        <v>14</v>
+      </c>
+      <c r="G15" s="3">
+        <v>36.76</v>
+      </c>
+      <c r="H15" s="3">
+        <v>1</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J15" s="3">
+        <v>25</v>
+      </c>
+      <c r="K15" s="5" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="F16" s="3">
+        <v>1520.82</v>
+      </c>
+      <c r="G16" s="3">
+        <v>0</v>
+      </c>
+      <c r="H16" s="3">
+        <v>0</v>
+      </c>
+      <c r="I16" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="J16" s="3">
+        <v>2</v>
+      </c>
+      <c r="K16" s="5" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="F17" s="3">
+        <v>512.83</v>
+      </c>
+      <c r="G17" s="3">
+        <v>0</v>
+      </c>
+      <c r="H17" s="3">
+        <v>0</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="J17" s="3">
+        <v>1</v>
+      </c>
+      <c r="K17" s="5" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="F18" s="3">
+        <v>1484</v>
+      </c>
+      <c r="G18" s="3">
+        <v>16800</v>
+      </c>
+      <c r="H18" s="3">
+        <v>350</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J18" s="3">
+        <v>5</v>
+      </c>
+      <c r="K18" s="5" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="F19" s="3">
+        <v>0</v>
+      </c>
+      <c r="G19" s="3">
+        <v>0</v>
+      </c>
+      <c r="H19" s="3">
+        <v>0</v>
+      </c>
+      <c r="I19" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="J19" s="3">
+        <v>300</v>
+      </c>
+      <c r="K19" s="5" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C20" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="G12" s="6">
-        <v>129.79</v>
-      </c>
-      <c r="H12" s="6">
-        <v>0</v>
-      </c>
-      <c r="I12" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="J12" s="6">
-        <v>40</v>
-      </c>
-      <c r="K12" s="8" t="s">
-        <v>72</v>
+      <c r="D20" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="F20" s="3">
+        <v>826.64</v>
+      </c>
+      <c r="G20" s="3">
+        <v>3807.6</v>
+      </c>
+      <c r="H20" s="3">
+        <v>62</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J20" s="3">
+        <v>4</v>
+      </c>
+      <c r="K20" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="F21" s="6">
+        <v>0</v>
+      </c>
+      <c r="G21" s="6">
+        <v>0</v>
+      </c>
+      <c r="H21" s="6">
+        <v>4</v>
+      </c>
+      <c r="I21" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="J21" s="6">
+        <v>150</v>
+      </c>
+      <c r="K21" s="8" t="s">
+        <v>102</v>
       </c>
     </row>
   </sheetData>

--- a/src/informesGenerados/PextListado.xlsx
+++ b/src/informesGenerados/PextListado.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="460" uniqueCount="460">
   <si>
     <t>Unidad Organizativa</t>
   </si>
@@ -49,6 +49,114 @@
     <t>CDNT</t>
   </si>
   <si>
+    <t>DTGR</t>
+  </si>
+  <si>
+    <t>2020-01-02</t>
+  </si>
+  <si>
+    <t>Afectación a la planta exterior por  corte y sustracción de bajante telefónico Calle 16 Rosa La Bayamesa, entre 33 y 39</t>
+  </si>
+  <si>
+    <t>Bayamo</t>
+  </si>
+  <si>
+    <t>59/20</t>
+  </si>
+  <si>
+    <t>Bajante telefónico</t>
+  </si>
+  <si>
+    <t>DTGR-01-20-0001</t>
+  </si>
+  <si>
+    <t>DTSC</t>
+  </si>
+  <si>
+    <t>2020-01-06</t>
+  </si>
+  <si>
+    <t>Afectación a la planta exterior por  corte y sustracción de cable telefónico Carretera San Luis- Dos Caminos</t>
+  </si>
+  <si>
+    <t>San Luis (SC)</t>
+  </si>
+  <si>
+    <t>356/20</t>
+  </si>
+  <si>
+    <t>Cable telefónico</t>
+  </si>
+  <si>
+    <t>DTSC-01-20-0001</t>
+  </si>
+  <si>
+    <t>DTES</t>
+  </si>
+  <si>
+    <t>2020-01-17</t>
+  </si>
+  <si>
+    <t>Afectación a la planta exterior por  corte de un cable telefónico de 30 pares Entre 27 de Noviembre y Aranguren</t>
+  </si>
+  <si>
+    <t>Regla</t>
+  </si>
+  <si>
+    <t>3160/20</t>
+  </si>
+  <si>
+    <t>DVLH-01-20-0010</t>
+  </si>
+  <si>
+    <t>2020-01-20</t>
+  </si>
+  <si>
+    <t>Afectación a la planta exterior por  corte y sustracción de un cable telefónico de 100 pares Carretera de Mar Verde a 300 mts de la Fábrica Marcel Bravo</t>
+  </si>
+  <si>
+    <t>Santiago de Cuba</t>
+  </si>
+  <si>
+    <t>1208/20</t>
+  </si>
+  <si>
+    <t>DTSC-01-20-0007</t>
+  </si>
+  <si>
+    <t>2020-01-26</t>
+  </si>
+  <si>
+    <t>Afectación a la planta exterior por  corte y sustracción de unbajante telefónico Calle José Antonio Hechavarria, entre Fiagueredo y Calle 46</t>
+  </si>
+  <si>
+    <t>1044/20</t>
+  </si>
+  <si>
+    <t>DTGR-01-20-0012</t>
+  </si>
+  <si>
+    <t>DTMZ</t>
+  </si>
+  <si>
+    <t>2020-01-28</t>
+  </si>
+  <si>
+    <t>Afectación a la planta exterior por  corte y sustracción  de tensor de acero galvanizado de 8 mm Curva Finca del Miedo a Entronque J23</t>
+  </si>
+  <si>
+    <t>Jagüey Grande</t>
+  </si>
+  <si>
+    <t>1348/20</t>
+  </si>
+  <si>
+    <t>Tensor</t>
+  </si>
+  <si>
+    <t>DTMZ-01-20-0009</t>
+  </si>
+  <si>
     <t>DTSR</t>
   </si>
   <si>
@@ -64,33 +172,21 @@
     <t>6877/20</t>
   </si>
   <si>
-    <t>Bajante telefónico</t>
-  </si>
-  <si>
     <t>DVLH-02-20-0022</t>
   </si>
   <si>
     <t>Afectación a la planta exterior por  corte de un cable telefónico de 50 pares Calle Silvia  y Concordia</t>
   </si>
   <si>
-    <t>Cable telefónico</t>
-  </si>
-  <si>
     <t>DVLH-02-20-0023</t>
   </si>
   <si>
-    <t>DTSC</t>
-  </si>
-  <si>
     <t>2020-02-04</t>
   </si>
   <si>
     <t>Afectación a la planta exterior por  corte y sustracción de unbajante telefónico Entrada de Dos Caminos. Lateral de la UBPC</t>
   </si>
   <si>
-    <t>San Luis (SC)</t>
-  </si>
-  <si>
     <t>2047/20</t>
   </si>
   <si>
@@ -169,9 +265,6 @@
     <t>DTSS-02-20-0029</t>
   </si>
   <si>
-    <t>DTMZ</t>
-  </si>
-  <si>
     <t>2020-02-13</t>
   </si>
   <si>
@@ -184,9 +277,6 @@
     <t>2067/20</t>
   </si>
   <si>
-    <t>Tensor</t>
-  </si>
-  <si>
     <t>DTMZ-02-20-0016</t>
   </si>
   <si>
@@ -208,18 +298,12 @@
     <t>DVLH-02-20-0033</t>
   </si>
   <si>
-    <t>DTGR</t>
-  </si>
-  <si>
     <t>2020-02-16</t>
   </si>
   <si>
     <t>Afectación a la planta exterior por  corte y sustracción de bajante telefónico Calle 46, entre 26 de Julio y 19</t>
   </si>
   <si>
-    <t>Bayamo</t>
-  </si>
-  <si>
     <t>2029/20</t>
   </si>
   <si>
@@ -323,6 +407,995 @@
   </si>
   <si>
     <t>DTMZ-02-20-0020</t>
+  </si>
+  <si>
+    <t>2020-03-05</t>
+  </si>
+  <si>
+    <t>Afectación a la planta exterior por corte de FO soterrada Localidad Pedro Pi</t>
+  </si>
+  <si>
+    <t>San José de las Lajas</t>
+  </si>
+  <si>
+    <t>1642/20</t>
+  </si>
+  <si>
+    <t>DTMY-03-20-0014</t>
+  </si>
+  <si>
+    <t>2020-03-09</t>
+  </si>
+  <si>
+    <t>Afectación a la planta exterior por corte tres cables que alimentan tres gabinetes Calle Pedro Nuevo,  entre Longa y María Luisa</t>
+  </si>
+  <si>
+    <t>14210/20</t>
+  </si>
+  <si>
+    <t>DVLH-03-20-0058</t>
+  </si>
+  <si>
+    <t>2020-03-10</t>
+  </si>
+  <si>
+    <t>Afectación a la planta exterior por corte de un cable telefónico de 10 pares Calle Don Tomás, entre Menocal y Arellano</t>
+  </si>
+  <si>
+    <t>14550/20</t>
+  </si>
+  <si>
+    <t>DVLH-03-20-0061</t>
+  </si>
+  <si>
+    <t>DTHO</t>
+  </si>
+  <si>
+    <t>2020-03-11</t>
+  </si>
+  <si>
+    <t>Afectación a la planta exterior por corte de FON aérea Localidad Arroyo seco</t>
+  </si>
+  <si>
+    <t>Mayarí</t>
+  </si>
+  <si>
+    <t>3650/20</t>
+  </si>
+  <si>
+    <t>DTHO-03-20-0032</t>
+  </si>
+  <si>
+    <t>2020-03-13</t>
+  </si>
+  <si>
+    <t>Afectación a la planta exterior por corte y sustracción de alambre de cobre desnudo Carretera Chivirico, recta Sevilla antes de Hotel Sierra Mar</t>
+  </si>
+  <si>
+    <t>Guamá</t>
+  </si>
+  <si>
+    <t>4583/20</t>
+  </si>
+  <si>
+    <t>Alambre de cobre</t>
+  </si>
+  <si>
+    <t>DTSC-03-20-0034</t>
+  </si>
+  <si>
+    <t>2020-03-16</t>
+  </si>
+  <si>
+    <t>Afectación a la planta exterior por corte y sustracción de bajante telefónico Calle 27 entre calle 16 y calle 18</t>
+  </si>
+  <si>
+    <t>3642/20</t>
+  </si>
+  <si>
+    <t>DTGR-03-20-0043</t>
+  </si>
+  <si>
+    <t>2020-03-18</t>
+  </si>
+  <si>
+    <t>Afectación a la planta exterior por corte y sustracción de alambre de coser cable Carretera P. Betancourt - Jovellanos</t>
+  </si>
+  <si>
+    <t>Pedro Betancourt</t>
+  </si>
+  <si>
+    <t>3591/20</t>
+  </si>
+  <si>
+    <t>DTMZ-03-20-0032</t>
+  </si>
+  <si>
+    <t>Afectación a la planta exterior por  sustracción de los
+fúsibles(yulin) Calle Martí. No. 362, entre 27 de Noviembre y Aranguren</t>
+  </si>
+  <si>
+    <t>Mondragón</t>
+  </si>
+  <si>
+    <t>DVLH-03-20-0067</t>
+  </si>
+  <si>
+    <t>2020-03-28</t>
+  </si>
+  <si>
+    <t>Afectación a la planta exterior, por  corte de FO Salida de Juan G. Gómez a Unión de Reyes</t>
+  </si>
+  <si>
+    <t>Unión de Reyes</t>
+  </si>
+  <si>
+    <t>4013/20</t>
+  </si>
+  <si>
+    <t>DTMZ-03-20-0038</t>
+  </si>
+  <si>
+    <t>Afectación a la planta exterior, por corte de 2 cables de 200 pares Carretera de Expocuba</t>
+  </si>
+  <si>
+    <t>17903/20</t>
+  </si>
+  <si>
+    <t>DVLH-03-20-0072</t>
+  </si>
+  <si>
+    <t>DTLT</t>
+  </si>
+  <si>
+    <t>2020-04-01</t>
+  </si>
+  <si>
+    <t>Sustracción de  fusibles del conector exterior
+(mondragon) Consejo Popular No.1 del Centro de la Ciudad</t>
+  </si>
+  <si>
+    <t>Las Tunas</t>
+  </si>
+  <si>
+    <t>3358/20</t>
+  </si>
+  <si>
+    <t>DTLT-04-20-0018</t>
+  </si>
+  <si>
+    <t>Afectación a la planta exterior, por corte y sustracción de bajante telefónico Calle 5, entre M. Gómez y A. Leyva</t>
+  </si>
+  <si>
+    <t>3372/20</t>
+  </si>
+  <si>
+    <t>DTLT-04-20-0020</t>
+  </si>
+  <si>
+    <t>Afectación a la planta exterior, por corte y sustracción de tensor Localidad Barquero</t>
+  </si>
+  <si>
+    <t>Jatibonico</t>
+  </si>
+  <si>
+    <t>3017/20</t>
+  </si>
+  <si>
+    <t>DTSS-04-20-0072</t>
+  </si>
+  <si>
+    <t>2020-04-09</t>
+  </si>
+  <si>
+    <t>Afectación a la planta exterior, por corte y sustracción de cable de 10 pares Concejo Popular El Batey. Localidad Paso Pata</t>
+  </si>
+  <si>
+    <t>Jesús Menéndez</t>
+  </si>
+  <si>
+    <t>3713/20</t>
+  </si>
+  <si>
+    <t>DTLT-04-20-0022</t>
+  </si>
+  <si>
+    <t>DTAR</t>
+  </si>
+  <si>
+    <t>2020-04-18</t>
+  </si>
+  <si>
+    <t>Afectación a la planta exterior, por corte de FO Carretera al Mambí</t>
+  </si>
+  <si>
+    <t>San Cristóbal</t>
+  </si>
+  <si>
+    <t>3305/20</t>
+  </si>
+  <si>
+    <t>DTAR-04-20-0067</t>
+  </si>
+  <si>
+    <t>2020-05-06</t>
+  </si>
+  <si>
+    <t>Afectación a la planta exterior, por destrucción de 4 postes de hormigón de 7,5 mts Carretera de J. Grande a Agramonte</t>
+  </si>
+  <si>
+    <t>5888/20</t>
+  </si>
+  <si>
+    <t>Postes</t>
+  </si>
+  <si>
+    <t>DTMZ-05-20-0047</t>
+  </si>
+  <si>
+    <t>2020-05-13</t>
+  </si>
+  <si>
+    <t>Afectación a la planta exterior, por corte y sustracción de bajante telefónico Calle Nicio García, No. 230,  entre 19 y 25</t>
+  </si>
+  <si>
+    <t>Holguín</t>
+  </si>
+  <si>
+    <t>6490/20</t>
+  </si>
+  <si>
+    <t>DTHO-05-20-0046</t>
+  </si>
+  <si>
+    <t>Afectación a la planta exterior, por corte y sustracción de alambre sprin Carretera Bejucal-Quivicán</t>
+  </si>
+  <si>
+    <t>Bejucal</t>
+  </si>
+  <si>
+    <t>3259/20</t>
+  </si>
+  <si>
+    <t>DTMY-05-20-0023</t>
+  </si>
+  <si>
+    <t>DTCA</t>
+  </si>
+  <si>
+    <t>2020-05-15</t>
+  </si>
+  <si>
+    <t>Afectación a la planta exterior, por corte y sustracción de cable telefónico Carretera La Playita, entre Estacion de Bomberos y Casa Guarda Fronteras</t>
+  </si>
+  <si>
+    <t>Ciego de Ávila</t>
+  </si>
+  <si>
+    <t>3440/20</t>
+  </si>
+  <si>
+    <t>DTCA-05-20-0013</t>
+  </si>
+  <si>
+    <t>2020-05-21</t>
+  </si>
+  <si>
+    <t>Afectación a la planta exterior, por corte y sustracción de FO Carretera de Chivirico. Villa turquino</t>
+  </si>
+  <si>
+    <t>8293/20</t>
+  </si>
+  <si>
+    <t>DTSC-05-20-0058</t>
+  </si>
+  <si>
+    <t>2020-05-25</t>
+  </si>
+  <si>
+    <t>Afectación a la planta exterior, por corte y sustracción de bajante telefónico Ave. 11 No . Edificio 3</t>
+  </si>
+  <si>
+    <t>Caimito</t>
+  </si>
+  <si>
+    <t>4281/20</t>
+  </si>
+  <si>
+    <t>DTAR-05-20-0100</t>
+  </si>
+  <si>
+    <t>2020-06-07</t>
+  </si>
+  <si>
+    <t>Afectación a la planta exterior, por corte y sustracción de bajante telefónico Calle Línea, entre Santayana y San Ramón</t>
+  </si>
+  <si>
+    <t>8338/20</t>
+  </si>
+  <si>
+    <t>DTCM-06-20-0055</t>
+  </si>
+  <si>
+    <t>2020-06-10</t>
+  </si>
+  <si>
+    <t>Afectación a la planta exterior, por corte y sustracción de bajante telefónico Bloque D. Disrito José Martí</t>
+  </si>
+  <si>
+    <t>9381/20</t>
+  </si>
+  <si>
+    <t>DTSC-06-20-0064</t>
+  </si>
+  <si>
+    <t>2020-06-15</t>
+  </si>
+  <si>
+    <t>Afectación a la planta exterior, por corte y sustracción de bajante telefónico Calle Flor Crombet</t>
+  </si>
+  <si>
+    <t>Río Cauto</t>
+  </si>
+  <si>
+    <t>7939/20</t>
+  </si>
+  <si>
+    <t>DTGR-06-20-0072</t>
+  </si>
+  <si>
+    <t>2020-06-20</t>
+  </si>
+  <si>
+    <t>Afectación a la planta exterior, por corte intensional de FO Carretera vía San Andrés.Entrada a Purnio</t>
+  </si>
+  <si>
+    <t>8617/20</t>
+  </si>
+  <si>
+    <t>DTHO-06-20-0059</t>
+  </si>
+  <si>
+    <t>2020-06-26</t>
+  </si>
+  <si>
+    <t>Afectación a la planta exterior, por corte y sustracción de bajante telefónico Autopista Nacional. Al lado del Tropicana</t>
+  </si>
+  <si>
+    <t>10388/20</t>
+  </si>
+  <si>
+    <t>DTSC-06-20-0066</t>
+  </si>
+  <si>
+    <t>2020-06-29</t>
+  </si>
+  <si>
+    <t>Afectación a la planta exterior, por corte de cable coaxial Carretera de San Luís Km 2</t>
+  </si>
+  <si>
+    <t>10556/20</t>
+  </si>
+  <si>
+    <t>Cable coaxial</t>
+  </si>
+  <si>
+    <t>DTSC-06-20-0068</t>
+  </si>
+  <si>
+    <t>2020-06-30</t>
+  </si>
+  <si>
+    <t>Afectación a la planta exterior, por corte y sustracción de cable telefónico Carretera del CAI Manuel Isla-Batey Esperanza</t>
+  </si>
+  <si>
+    <t>Nueva Paz</t>
+  </si>
+  <si>
+    <t>4349/20</t>
+  </si>
+  <si>
+    <t>DTMY-06-20-0026</t>
+  </si>
+  <si>
+    <t>2020-07-08</t>
+  </si>
+  <si>
+    <t>Afectación a la planta exterior, por corte y sustracción de FO Carretera Melena-Batabanó</t>
+  </si>
+  <si>
+    <t>Batabanó</t>
+  </si>
+  <si>
+    <t>4515/20</t>
+  </si>
+  <si>
+    <t>DTMY-07-20-0027</t>
+  </si>
+  <si>
+    <t>2020-07-10</t>
+  </si>
+  <si>
+    <t>Afectación a la planta exterior, por corte y sustracción de bajante telefónico Calle 26 de Julio,  No. 143</t>
+  </si>
+  <si>
+    <t>Calixto García</t>
+  </si>
+  <si>
+    <t>6898/20</t>
+  </si>
+  <si>
+    <t>DTHO-07-20-0063</t>
+  </si>
+  <si>
+    <t>2020-07-14</t>
+  </si>
+  <si>
+    <t>Afectación a la planta exterior, por corte y sustracción de bajante telefónico Calle 13 de Marzo</t>
+  </si>
+  <si>
+    <t>10098/20</t>
+  </si>
+  <si>
+    <t>DTHO-07-20-0065</t>
+  </si>
+  <si>
+    <t>DTPR</t>
+  </si>
+  <si>
+    <t>2020-07-15</t>
+  </si>
+  <si>
+    <t>Afectación a la planta exterior, por corte y sustracción de bajante telefónico Km 5 Carrtera a La Coloma</t>
+  </si>
+  <si>
+    <t>Pinar del Río</t>
+  </si>
+  <si>
+    <t>8057/20</t>
+  </si>
+  <si>
+    <t>DTPR-07-20-0024</t>
+  </si>
+  <si>
+    <t>DTCF</t>
+  </si>
+  <si>
+    <t>2020-07-17</t>
+  </si>
+  <si>
+    <t>Destruido un poste de hormigón de 9.00 mts para sustraerle el acero (ruta en desuso) Carretera a Sierrita, entre Entronque y Entrada a vaqueria 29</t>
+  </si>
+  <si>
+    <t>Cienfuegos</t>
+  </si>
+  <si>
+    <t>4659/20</t>
+  </si>
+  <si>
+    <t>DTCF-07-20-0161</t>
+  </si>
+  <si>
+    <t>2020-07-21</t>
+  </si>
+  <si>
+    <t>12043/20</t>
+  </si>
+  <si>
+    <t>DTSC-07-20-0075</t>
+  </si>
+  <si>
+    <t>2020-07-26</t>
+  </si>
+  <si>
+    <t>Afectación a la planta exterior, por Gabinete Distribución vandalizado Carretera a San Germán. Rpto. 26 de Julio</t>
+  </si>
+  <si>
+    <t>10866/20</t>
+  </si>
+  <si>
+    <t>Gabinetes</t>
+  </si>
+  <si>
+    <t>DTHO-07-20-0068</t>
+  </si>
+  <si>
+    <t>2020-08-11</t>
+  </si>
+  <si>
+    <t>Afectación a la planta exterior por corte y sustracción de 4 postes de madera de 7.5 mts Carretera de Baconao. Ruta Poceta del Porvenir</t>
+  </si>
+  <si>
+    <t>13527/20</t>
+  </si>
+  <si>
+    <t>DTSC-08-20-0084</t>
+  </si>
+  <si>
+    <t>2020-08-14</t>
+  </si>
+  <si>
+    <t>Afectación a la planta exterior por sustracción de una cruceta Rpto. Mario Muñoz</t>
+  </si>
+  <si>
+    <t>Fomento</t>
+  </si>
+  <si>
+    <t>7402/20</t>
+  </si>
+  <si>
+    <t>Crucetas</t>
+  </si>
+  <si>
+    <t>DTSS-08-20-0225</t>
+  </si>
+  <si>
+    <t>2020-08-28</t>
+  </si>
+  <si>
+    <t>Afectación a la planta exterior por sustracción de cable de 400 pares Carretera central Vía Las Tunas. Entre 36 y 38</t>
+  </si>
+  <si>
+    <t>13095/20</t>
+  </si>
+  <si>
+    <t>DTHO-08-20-0084</t>
+  </si>
+  <si>
+    <t>2020-08-31</t>
+  </si>
+  <si>
+    <t>Afectación a la planta exterior por corte y sustracción de bajante telefónico Ave 46 No. 705,  entre 7 y 9</t>
+  </si>
+  <si>
+    <t>5900/20</t>
+  </si>
+  <si>
+    <t>DTCF-08-20-0200</t>
+  </si>
+  <si>
+    <t>2020-09-01</t>
+  </si>
+  <si>
+    <t>Afectación a la planta exterior por corte y sustracción de bajante telefónico Avenida Carlos J Finlay,  entre Calle 42 y 25 B</t>
+  </si>
+  <si>
+    <t>10237/20</t>
+  </si>
+  <si>
+    <t>DTLT-09-20-0063</t>
+  </si>
+  <si>
+    <t>2020-09-03</t>
+  </si>
+  <si>
+    <t>Afectación a la planta exterior por corte y sustracción de bajante telefónico Localidad de San Germán. La Loma</t>
+  </si>
+  <si>
+    <t>Urbano Noris</t>
+  </si>
+  <si>
+    <t>13537/20</t>
+  </si>
+  <si>
+    <t>DTHO-09-20-0086</t>
+  </si>
+  <si>
+    <t>2020-09-04</t>
+  </si>
+  <si>
+    <t>Afectación a la planta exterior por corte de tensor Localidad de Crimea</t>
+  </si>
+  <si>
+    <t>10970/20</t>
+  </si>
+  <si>
+    <t>DTMZ-09-20-0080</t>
+  </si>
+  <si>
+    <t>2020-09-07</t>
+  </si>
+  <si>
+    <t>Afectación a la planta exterior por corte y sustracción de bajante telefónico Carretera de Siboney. Entrada Parque de Diversiones</t>
+  </si>
+  <si>
+    <t>15354/20</t>
+  </si>
+  <si>
+    <t>DTSC-09-20-0097</t>
+  </si>
+  <si>
+    <t>2020-09-12</t>
+  </si>
+  <si>
+    <t>Afectación a la planta exterior por corte y sustracción de bajante telefónico Calle Francisco Vicente Aguilera</t>
+  </si>
+  <si>
+    <t>Jobabo</t>
+  </si>
+  <si>
+    <t>10841/20</t>
+  </si>
+  <si>
+    <t>DTLT-09-20-0074</t>
+  </si>
+  <si>
+    <t>2020-09-18</t>
+  </si>
+  <si>
+    <t>Afectación a la planta exterior por corte y sustracción de cable telefónico Carretera de La Yagua a la CPA Países Nórticos</t>
+  </si>
+  <si>
+    <t>Güira de Melena</t>
+  </si>
+  <si>
+    <t>7884/20</t>
+  </si>
+  <si>
+    <t>DTAR-09-20-0238</t>
+  </si>
+  <si>
+    <t>Afectación a la planta exterior por corte de FO A 4 Km salida de Jovellanos</t>
+  </si>
+  <si>
+    <t>11711/20</t>
+  </si>
+  <si>
+    <t>DTMZ-09-20-0089</t>
+  </si>
+  <si>
+    <t>2020-09-21</t>
+  </si>
+  <si>
+    <t>Afectación a la planta exterior por fracturade la puerta del gabinete A3C Calle madancurie, esquina 2da</t>
+  </si>
+  <si>
+    <t>14297/20</t>
+  </si>
+  <si>
+    <t>DTCM-09-20-0104</t>
+  </si>
+  <si>
+    <t>2020-09-25</t>
+  </si>
+  <si>
+    <t>Afectación a la planta exterior por corte y sustracción de cable telefónico de 10 pares Carretera entre Nuava Paz y Comunidad Santa Clara</t>
+  </si>
+  <si>
+    <t>6268/20</t>
+  </si>
+  <si>
+    <t>DTMY-09-20-0033</t>
+  </si>
+  <si>
+    <t>2020-09-30</t>
+  </si>
+  <si>
+    <t>Afectación a la planta exterior por corte de cable telefónico Carretera frente a la ESBEC Hermanos Almeida- La Mulata</t>
+  </si>
+  <si>
+    <t>12297/20</t>
+  </si>
+  <si>
+    <t>DTMZ-09-20-0093</t>
+  </si>
+  <si>
+    <t>2020-10-06</t>
+  </si>
+  <si>
+    <t>Afectación a la planta exterior por corte y sustracción de bajante telefónico Edificio 26. Rpto. Buena Vista</t>
+  </si>
+  <si>
+    <t>11789/20</t>
+  </si>
+  <si>
+    <t>DTLT-10-20-0088</t>
+  </si>
+  <si>
+    <t>2020-10-10</t>
+  </si>
+  <si>
+    <t>Afectación a la planta exterior por corte y sustracción de bajante telefónico Edificio 11. Rpto Buena Vista</t>
+  </si>
+  <si>
+    <t>1197/20</t>
+  </si>
+  <si>
+    <t>DTLT-10-20-0094</t>
+  </si>
+  <si>
+    <t>2020-10-14</t>
+  </si>
+  <si>
+    <t>18071/20</t>
+  </si>
+  <si>
+    <t>DTSC-10-20-0111</t>
+  </si>
+  <si>
+    <t>2020-10-21</t>
+  </si>
+  <si>
+    <t>Afectación a la planta exterior por corte y sustracción de bajante telefónico Edificio 27.  Alturas de Buena Vista</t>
+  </si>
+  <si>
+    <t>12465/20</t>
+  </si>
+  <si>
+    <t>DTLT-10-20-0108</t>
+  </si>
+  <si>
+    <t>2020-10-24</t>
+  </si>
+  <si>
+    <t>Afectación a la planta exterior por corte y sustracción de bajante telefónico Boca de Mícara. II Frente</t>
+  </si>
+  <si>
+    <t>Segundo Frente</t>
+  </si>
+  <si>
+    <t>18739/20</t>
+  </si>
+  <si>
+    <t>DTSC-10-20-0113</t>
+  </si>
+  <si>
+    <t>2020-11-01</t>
+  </si>
+  <si>
+    <t>Afectación a la planta exterior por corte y sustracción de bajante telefónico Calle 44, entre 21 y 26 de Julio</t>
+  </si>
+  <si>
+    <t>16553/20</t>
+  </si>
+  <si>
+    <t>DTGR-11-20-0148</t>
+  </si>
+  <si>
+    <t>2020-11-06</t>
+  </si>
+  <si>
+    <t>Afectación a la planta exterior por corte y sustracción de bajante telefónico Avenida Carlos J Finlay, entre Calle 42 y 25 B</t>
+  </si>
+  <si>
+    <t>13155/20</t>
+  </si>
+  <si>
+    <t>DTLT-11-20-0120</t>
+  </si>
+  <si>
+    <t>2020-11-09</t>
+  </si>
+  <si>
+    <t>Afectación a la planta exterior por corte y sustracción de cable tensor Circunvalación norte, entre Camino viejo a Nuevitas y Avenida Ignacio Agramonte</t>
+  </si>
+  <si>
+    <t>17337/20</t>
+  </si>
+  <si>
+    <t>DTCM-11-20-0121</t>
+  </si>
+  <si>
+    <t>2020-11-11</t>
+  </si>
+  <si>
+    <t>Afectación a la planta exterior por  sustracción de un AP (Wifi) Portal de la Dirección Provincial de Cultura</t>
+  </si>
+  <si>
+    <t>12638/20</t>
+  </si>
+  <si>
+    <t>DTPR-11-20-0051</t>
+  </si>
+  <si>
+    <t>2020-11-12</t>
+  </si>
+  <si>
+    <t>Afectación a la planta exterior por corte y sustracción de bajante telefónico Vía las Tunas</t>
+  </si>
+  <si>
+    <t>17978/20</t>
+  </si>
+  <si>
+    <t>DTHO-11-20-0114</t>
+  </si>
+  <si>
+    <t>DTVC</t>
+  </si>
+  <si>
+    <t>2020-11-13</t>
+  </si>
+  <si>
+    <t>Afectación a la planta exterior por corte y sustracción de cable telefónico Interior de la Universidad</t>
+  </si>
+  <si>
+    <t>Santa Clara</t>
+  </si>
+  <si>
+    <t>12203/20</t>
+  </si>
+  <si>
+    <t>DTVC-11-20-0249</t>
+  </si>
+  <si>
+    <t>Afectación a la planta exterior por corte y sustracción de alambre de coser(alambre spring) Carretera Placetas a Hermanos Ameijeiras</t>
+  </si>
+  <si>
+    <t>Placetas</t>
+  </si>
+  <si>
+    <t>12505/20</t>
+  </si>
+  <si>
+    <t>DTVC-11-20-0250</t>
+  </si>
+  <si>
+    <t>2020-11-14</t>
+  </si>
+  <si>
+    <t>Afectación a la planta exterior por corte y sustracción de bajante telefónico Calle 42, entre 1ro Enero y A Cebreco</t>
+  </si>
+  <si>
+    <t>13517/20</t>
+  </si>
+  <si>
+    <t>DTLT-11-20-0127</t>
+  </si>
+  <si>
+    <t>2020-11-23</t>
+  </si>
+  <si>
+    <t>Afectación a la planta exterior por corte y sustracción de  tensor Circunvalación norte, entre Camino viejo a nuevitas y Avenida Ignacio Agramonte</t>
+  </si>
+  <si>
+    <t>18297/20</t>
+  </si>
+  <si>
+    <t>DTCM-11-20-0124</t>
+  </si>
+  <si>
+    <t>Afectación a la planta exterior por corte y sustracción de alambre de coser(alambre spring) Carretera Central entre el Km 332 y Km 335</t>
+  </si>
+  <si>
+    <t>12900/20</t>
+  </si>
+  <si>
+    <t>DTVC-11-20-0257</t>
+  </si>
+  <si>
+    <t>2020-11-24</t>
+  </si>
+  <si>
+    <t>Afectación a la planta exterior por corte y sustracción de bajante telefónico Carretera Central . Rpto. Oscar Lucero</t>
+  </si>
+  <si>
+    <t>18778/20</t>
+  </si>
+  <si>
+    <t>DTHO-11-20-0116</t>
+  </si>
+  <si>
+    <t>2020-11-27</t>
+  </si>
+  <si>
+    <t>Afectación a la planta exterior por corte y sustracción de bajante telefónico Carretera de Baconao KM 1 1/2</t>
+  </si>
+  <si>
+    <t>21233/20</t>
+  </si>
+  <si>
+    <t>DTSC-11-20-0131</t>
+  </si>
+  <si>
+    <t>2020-12-01</t>
+  </si>
+  <si>
+    <t>Afectación a la planta exterior por corte y sustracción de tensor Carretera San Hipólito a Dirección Agropecuaria Militar</t>
+  </si>
+  <si>
+    <t>Bahía Honda</t>
+  </si>
+  <si>
+    <t>DTAR-12-20-0324</t>
+  </si>
+  <si>
+    <t>2020-12-05</t>
+  </si>
+  <si>
+    <t>Afectación a la planta exterior por corte y sustracción de bajante telefónico Edificio No.4. Rpto. Aguilera</t>
+  </si>
+  <si>
+    <t>14383/20</t>
+  </si>
+  <si>
+    <t>DTLT-12-20-0140</t>
+  </si>
+  <si>
+    <t>2020-12-07</t>
+  </si>
+  <si>
+    <t>Afectación a la planta exterior por corte y sustracción de bajante telefónico Edificio 26 en Buena Vista</t>
+  </si>
+  <si>
+    <t>14490/20</t>
+  </si>
+  <si>
+    <t>DTLT-12-20-0142</t>
+  </si>
+  <si>
+    <t>2020-12-08</t>
+  </si>
+  <si>
+    <t>Afectación a la planta exterior por corte y sustracción de tensor Carretara al Cafetal</t>
+  </si>
+  <si>
+    <t>San Juan y Martínez</t>
+  </si>
+  <si>
+    <t>14114/20</t>
+  </si>
+  <si>
+    <t>DTPR-12-20-0055</t>
+  </si>
+  <si>
+    <t>Afectación a la planta exterior por sustracción de 3 AP (WIFI) Calle 311, entre 170 y 172. Parque Lugardita</t>
+  </si>
+  <si>
+    <t>Boyeros</t>
+  </si>
+  <si>
+    <t>66690/20</t>
+  </si>
+  <si>
+    <t>DVLH-12-20-0232</t>
+  </si>
+  <si>
+    <t>2020-12-15</t>
+  </si>
+  <si>
+    <t>Afectación a la planta exterior por sustracción de la FO de reserva Las afueras del cementerio de San Antonio de las Vegas</t>
+  </si>
+  <si>
+    <t>8080/20</t>
+  </si>
+  <si>
+    <t>DTMY-12-20-0039</t>
+  </si>
+  <si>
+    <t>2020-12-25</t>
+  </si>
+  <si>
+    <t>Afectación a la planta exterior por corte y sustracción de tensor y  cable multipar Carretera Central Oriente, entre Hospital Psiquiátrico de Camaguey y Laguna de Tayabito</t>
+  </si>
+  <si>
+    <t>20287/20</t>
+  </si>
+  <si>
+    <t>DTCM-12-20-0138</t>
+  </si>
+  <si>
+    <t>2020-12-28</t>
+  </si>
+  <si>
+    <t>Afectación a la planta exterior por corte y sustracción de tensor Circunvalación Norte, entre La Rotonda y Línea del Ferrocarril</t>
+  </si>
+  <si>
+    <t>20431/20</t>
+  </si>
+  <si>
+    <t>DTCM-12-20-0139</t>
+  </si>
+  <si>
+    <t>2020-12-30</t>
+  </si>
+  <si>
+    <t>Afectación a la planta exterior por corte y sustracción de tensor Calle 111. La Reforma</t>
+  </si>
+  <si>
+    <t>15561/20</t>
+  </si>
+  <si>
+    <t>DTLT-12-20-0146</t>
   </si>
 </sst>
 </file>
@@ -780,7 +1853,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main">
   <sheetPr/>
-  <dimension ref="A1:K21"/>
+  <dimension ref="A1:K102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="60" zoomScale="100" view="normal"/>
   </sheetViews>
@@ -849,19 +1922,19 @@
         <v>15</v>
       </c>
       <c r="F2" s="3">
-        <v>0</v>
+        <v>77.05</v>
       </c>
       <c r="G2" s="3">
-        <v>0</v>
+        <v>70.88</v>
       </c>
       <c r="H2" s="3">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="I2" s="3" t="s">
         <v>16</v>
       </c>
       <c r="J2" s="3">
-        <v>400</v>
+        <v>250</v>
       </c>
       <c r="K2" s="5" t="s">
         <v>17</v>
@@ -869,194 +1942,194 @@
     </row>
     <row r="3">
       <c r="A3" s="3" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="F3" s="3">
-        <v>0</v>
+        <v>146.42</v>
       </c>
       <c r="G3" s="3">
-        <v>0</v>
+        <v>532.87</v>
       </c>
       <c r="H3" s="3">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="J3" s="3">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="K3" s="5" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C4" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F4" s="3">
+        <v>101.1</v>
+      </c>
+      <c r="G4" s="3">
+        <v>236.7</v>
+      </c>
+      <c r="H4" s="3">
+        <v>19</v>
+      </c>
+      <c r="I4" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="F4" s="3">
-        <v>45.56</v>
-      </c>
-      <c r="G4" s="3">
-        <v>56.92</v>
-      </c>
-      <c r="H4" s="3">
-        <v>3</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="J4" s="3">
-        <v>130</v>
+        <v>30</v>
       </c>
       <c r="K4" s="5" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="F5" s="3">
-        <v>249</v>
+        <v>392</v>
       </c>
       <c r="G5" s="3">
-        <v>1466.85</v>
+        <v>152.68</v>
       </c>
       <c r="H5" s="3">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="J5" s="3">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="K5" s="5" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="3" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="F6" s="3">
-        <v>226.7</v>
+        <v>21.5</v>
       </c>
       <c r="G6" s="3">
-        <v>6174.55</v>
+        <v>0</v>
       </c>
       <c r="H6" s="3">
-        <v>140</v>
+        <v>2</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="J6" s="3">
-        <v>19</v>
+        <v>82</v>
       </c>
       <c r="K6" s="5" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="3" t="s">
-        <v>11</v>
+        <v>40</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="F7" s="3">
         <v>0</v>
       </c>
       <c r="G7" s="3">
-        <v>0</v>
+        <v>224.91</v>
       </c>
       <c r="H7" s="3">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>19</v>
+        <v>45</v>
       </c>
       <c r="J7" s="3">
-        <v>60</v>
+        <v>350</v>
       </c>
       <c r="K7" s="5" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="3" t="s">
-        <v>11</v>
+        <v>47</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>14</v>
+        <v>50</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="F8" s="3">
         <v>0</v>
@@ -1065,33 +2138,33 @@
         <v>0</v>
       </c>
       <c r="H8" s="3">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="J8" s="3">
-        <v>40</v>
+        <v>400</v>
       </c>
       <c r="K8" s="5" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="3" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="F9" s="3">
         <v>0</v>
@@ -1100,170 +2173,170 @@
         <v>0</v>
       </c>
       <c r="H9" s="3">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>49</v>
+        <v>23</v>
       </c>
       <c r="J9" s="3">
-        <v>2</v>
+        <v>50</v>
       </c>
       <c r="K9" s="5" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="3" t="s">
-        <v>51</v>
+        <v>18</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>54</v>
+        <v>21</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="F10" s="3">
-        <v>0</v>
+        <v>45.56</v>
       </c>
       <c r="G10" s="3">
-        <v>0</v>
+        <v>56.92</v>
       </c>
       <c r="H10" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>56</v>
+        <v>16</v>
       </c>
       <c r="J10" s="3">
-        <v>250</v>
+        <v>130</v>
       </c>
       <c r="K10" s="5" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="3" t="s">
-        <v>11</v>
+        <v>47</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>14</v>
+        <v>50</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F11" s="3">
-        <v>1917.6</v>
+        <v>249</v>
       </c>
       <c r="G11" s="3">
-        <v>22313.7</v>
+        <v>1466.85</v>
       </c>
       <c r="H11" s="3">
-        <v>400</v>
+        <v>30</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="J11" s="3">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="K11" s="5" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="3" t="s">
-        <v>11</v>
+        <v>63</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>14</v>
+        <v>66</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="F12" s="3">
-        <v>0</v>
+        <v>226.7</v>
       </c>
       <c r="G12" s="3">
-        <v>0</v>
+        <v>6174.55</v>
       </c>
       <c r="H12" s="3">
-        <v>50</v>
+        <v>140</v>
       </c>
       <c r="I12" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="J12" s="3">
         <v>19</v>
       </c>
-      <c r="J12" s="3">
-        <v>140</v>
-      </c>
       <c r="K12" s="5" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="3" t="s">
-        <v>64</v>
+        <v>47</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>67</v>
+        <v>50</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="F13" s="3">
-        <v>17.05</v>
+        <v>0</v>
       </c>
       <c r="G13" s="3">
-        <v>9.08</v>
+        <v>0</v>
       </c>
       <c r="H13" s="3">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="J13" s="3">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="K13" s="5" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="3" t="s">
-        <v>11</v>
+        <v>47</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>70</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>14</v>
+        <v>50</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>72</v>
@@ -1275,261 +2348,3094 @@
         <v>0</v>
       </c>
       <c r="H14" s="3">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="J14" s="3">
-        <v>600</v>
+        <v>40</v>
       </c>
       <c r="K14" s="5" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="3" t="s">
-        <v>21</v>
+        <v>76</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="F15" s="3">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="G15" s="3">
-        <v>36.76</v>
+        <v>0</v>
       </c>
       <c r="H15" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I15" s="3" t="s">
-        <v>16</v>
+        <v>81</v>
       </c>
       <c r="J15" s="3">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="K15" s="5" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="3" t="s">
-        <v>64</v>
+        <v>40</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>67</v>
+        <v>85</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="F16" s="3">
-        <v>1520.82</v>
+        <v>0</v>
       </c>
       <c r="G16" s="3">
         <v>0</v>
       </c>
       <c r="H16" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I16" s="3" t="s">
-        <v>82</v>
+        <v>45</v>
       </c>
       <c r="J16" s="3">
-        <v>2</v>
+        <v>250</v>
       </c>
       <c r="K16" s="5" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="3" t="s">
-        <v>64</v>
+        <v>47</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>67</v>
+        <v>50</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="F17" s="3">
-        <v>512.83</v>
+        <v>1917.6</v>
       </c>
       <c r="G17" s="3">
-        <v>0</v>
+        <v>22313.7</v>
       </c>
       <c r="H17" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="I17" s="3" t="s">
-        <v>82</v>
+        <v>23</v>
       </c>
       <c r="J17" s="3">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="K17" s="5" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="3" t="s">
-        <v>11</v>
+        <v>47</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>14</v>
+        <v>50</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="F18" s="3">
-        <v>1484</v>
+        <v>0</v>
       </c>
       <c r="G18" s="3">
-        <v>16800</v>
+        <v>0</v>
       </c>
       <c r="H18" s="3">
-        <v>350</v>
+        <v>50</v>
       </c>
       <c r="I18" s="3" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="J18" s="3">
-        <v>5</v>
+        <v>140</v>
       </c>
       <c r="K18" s="5" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="3" t="s">
-        <v>89</v>
+        <v>11</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>92</v>
+        <v>14</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="F19" s="3">
-        <v>0</v>
+        <v>17.05</v>
       </c>
       <c r="G19" s="3">
-        <v>0</v>
+        <v>9.08</v>
       </c>
       <c r="H19" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I19" s="3" t="s">
-        <v>94</v>
+        <v>16</v>
       </c>
       <c r="J19" s="3">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="K19" s="5" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="F20" s="3">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="J20" s="3">
+        <v>600</v>
+      </c>
+      <c r="K20" s="5" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="F21" s="3">
+        <v>14</v>
+      </c>
+      <c r="G21" s="3">
+        <v>36.76</v>
+      </c>
+      <c r="H21" s="3">
+        <v>1</v>
+      </c>
+      <c r="I21" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J21" s="3">
+        <v>25</v>
+      </c>
+      <c r="K21" s="5" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="B22" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="F22" s="3">
+        <v>1520.82</v>
+      </c>
+      <c r="G22" s="3">
+        <v>0</v>
+      </c>
+      <c r="H22" s="3">
+        <v>0</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="J22" s="3">
+        <v>2</v>
+      </c>
+      <c r="K22" s="5" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="F23" s="3">
+        <v>512.83</v>
+      </c>
+      <c r="G23" s="3">
+        <v>0</v>
+      </c>
+      <c r="H23" s="3">
+        <v>0</v>
+      </c>
+      <c r="I23" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="J23" s="3">
+        <v>1</v>
+      </c>
+      <c r="K23" s="5" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="F24" s="3">
+        <v>1484</v>
+      </c>
+      <c r="G24" s="3">
+        <v>16800</v>
+      </c>
+      <c r="H24" s="3">
+        <v>350</v>
+      </c>
+      <c r="I24" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="J24" s="3">
+        <v>5</v>
+      </c>
+      <c r="K24" s="5" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="F25" s="3">
+        <v>0</v>
+      </c>
+      <c r="G25" s="3">
+        <v>0</v>
+      </c>
+      <c r="H25" s="3">
+        <v>0</v>
+      </c>
+      <c r="I25" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="J25" s="3">
+        <v>300</v>
+      </c>
+      <c r="K25" s="5" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="F26" s="3">
+        <v>826.64</v>
+      </c>
+      <c r="G26" s="3">
+        <v>3807.6</v>
+      </c>
+      <c r="H26" s="3">
+        <v>62</v>
+      </c>
+      <c r="I26" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="J26" s="3">
+        <v>4</v>
+      </c>
+      <c r="K26" s="5" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="F27" s="3">
+        <v>0</v>
+      </c>
+      <c r="G27" s="3">
+        <v>0</v>
+      </c>
+      <c r="H27" s="3">
+        <v>4</v>
+      </c>
+      <c r="I27" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="J27" s="3">
+        <v>150</v>
+      </c>
+      <c r="K27" s="5" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="F28" s="3">
+        <v>0</v>
+      </c>
+      <c r="G28" s="3">
+        <v>0</v>
+      </c>
+      <c r="H28" s="3">
+        <v>0</v>
+      </c>
+      <c r="I28" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="J28" s="3">
+        <v>1</v>
+      </c>
+      <c r="K28" s="5" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="F29" s="3">
+        <v>0</v>
+      </c>
+      <c r="G29" s="3">
+        <v>0</v>
+      </c>
+      <c r="H29" s="3">
+        <v>33</v>
+      </c>
+      <c r="I29" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="J29" s="3">
+        <v>3</v>
+      </c>
+      <c r="K29" s="5" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="F30" s="3">
+        <v>0</v>
+      </c>
+      <c r="G30" s="3">
+        <v>0</v>
+      </c>
+      <c r="H30" s="3">
+        <v>9</v>
+      </c>
+      <c r="I30" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="J30" s="3">
+        <v>50</v>
+      </c>
+      <c r="K30" s="5" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="F31" s="3">
+        <v>0</v>
+      </c>
+      <c r="G31" s="3">
+        <v>0</v>
+      </c>
+      <c r="H31" s="3">
+        <v>0</v>
+      </c>
+      <c r="I31" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="J31" s="3">
+        <v>1</v>
+      </c>
+      <c r="K31" s="5" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="F32" s="3">
+        <v>277.59</v>
+      </c>
+      <c r="G32" s="3">
+        <v>154.78</v>
+      </c>
+      <c r="H32" s="3">
+        <v>2</v>
+      </c>
+      <c r="I32" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="J32" s="3">
+        <v>450</v>
+      </c>
+      <c r="K32" s="5" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="F33" s="3">
+        <v>19.14</v>
+      </c>
+      <c r="G33" s="3">
+        <v>16.61</v>
+      </c>
+      <c r="H33" s="3">
+        <v>1</v>
+      </c>
+      <c r="I33" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J33" s="3">
+        <v>60</v>
+      </c>
+      <c r="K33" s="5" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="F34" s="3">
+        <v>12.7</v>
+      </c>
+      <c r="G34" s="3">
+        <v>105.78</v>
+      </c>
+      <c r="H34" s="3">
+        <v>0</v>
+      </c>
+      <c r="I34" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="J34" s="3">
+        <v>100</v>
+      </c>
+      <c r="K34" s="5" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F35" s="3">
+        <v>365.88</v>
+      </c>
+      <c r="G35" s="3">
+        <v>212.97</v>
+      </c>
+      <c r="H35" s="3">
+        <v>2</v>
+      </c>
+      <c r="I35" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="J35" s="3">
+        <v>1</v>
+      </c>
+      <c r="K35" s="5" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="F36" s="3">
+        <v>1124.06</v>
+      </c>
+      <c r="G36" s="3">
+        <v>3956.54</v>
+      </c>
+      <c r="H36" s="3">
+        <v>2910</v>
+      </c>
+      <c r="I36" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="J36" s="3">
+        <v>300</v>
+      </c>
+      <c r="K36" s="5" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="F37" s="3">
+        <v>253.57</v>
+      </c>
+      <c r="G37" s="3">
+        <v>1496.98</v>
+      </c>
+      <c r="H37" s="3">
+        <v>130</v>
+      </c>
+      <c r="I37" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="J37" s="3">
+        <v>2</v>
+      </c>
+      <c r="K37" s="5" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="F38" s="3">
+        <v>19.62</v>
+      </c>
+      <c r="G38" s="3">
+        <v>28.89</v>
+      </c>
+      <c r="H38" s="3">
+        <v>19</v>
+      </c>
+      <c r="I38" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="J38" s="3">
+        <v>19</v>
+      </c>
+      <c r="K38" s="5" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="F39" s="3">
+        <v>2.26</v>
+      </c>
+      <c r="G39" s="3">
+        <v>3.15</v>
+      </c>
+      <c r="H39" s="3">
+        <v>1</v>
+      </c>
+      <c r="I39" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J39" s="3">
+        <v>8</v>
+      </c>
+      <c r="K39" s="5" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="F40" s="3">
+        <v>0</v>
+      </c>
+      <c r="G40" s="3">
+        <v>0</v>
+      </c>
+      <c r="H40" s="3">
+        <v>0</v>
+      </c>
+      <c r="I40" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="J40" s="3">
+        <v>470</v>
+      </c>
+      <c r="K40" s="5" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="F41" s="3">
+        <v>0</v>
+      </c>
+      <c r="G41" s="3">
+        <v>0</v>
+      </c>
+      <c r="H41" s="3">
+        <v>0</v>
+      </c>
+      <c r="I41" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="J41" s="3">
+        <v>60</v>
+      </c>
+      <c r="K41" s="5" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="F42" s="3">
+        <v>29.2</v>
+      </c>
+      <c r="G42" s="3">
+        <v>1515.36</v>
+      </c>
+      <c r="H42" s="3">
+        <v>176</v>
+      </c>
+      <c r="I42" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="J42" s="3">
+        <v>12</v>
+      </c>
+      <c r="K42" s="5" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="F43" s="3">
+        <v>332.16</v>
+      </c>
+      <c r="G43" s="3">
+        <v>0</v>
+      </c>
+      <c r="H43" s="3">
+        <v>0</v>
+      </c>
+      <c r="I43" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="J43" s="3">
+        <v>4</v>
+      </c>
+      <c r="K43" s="5" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="F44" s="3">
+        <v>5</v>
+      </c>
+      <c r="G44" s="3">
+        <v>6.4</v>
+      </c>
+      <c r="H44" s="3">
+        <v>1</v>
+      </c>
+      <c r="I44" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J44" s="3">
+        <v>20</v>
+      </c>
+      <c r="K44" s="5" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="F45" s="3">
+        <v>0</v>
+      </c>
+      <c r="G45" s="3">
+        <v>0</v>
+      </c>
+      <c r="H45" s="3">
+        <v>0</v>
+      </c>
+      <c r="I45" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="J45" s="3">
+        <v>800</v>
+      </c>
+      <c r="K45" s="5" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="F46" s="3">
+        <v>674</v>
+      </c>
+      <c r="G46" s="3">
+        <v>1578</v>
+      </c>
+      <c r="H46" s="3">
+        <v>4</v>
+      </c>
+      <c r="I46" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="J46" s="3">
+        <v>200</v>
+      </c>
+      <c r="K46" s="5" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="F47" s="3">
+        <v>0</v>
+      </c>
+      <c r="G47" s="3">
+        <v>0</v>
+      </c>
+      <c r="H47" s="3">
+        <v>0</v>
+      </c>
+      <c r="I47" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="J47" s="3">
+        <v>30</v>
+      </c>
+      <c r="K47" s="5" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="F48" s="3">
+        <v>0</v>
+      </c>
+      <c r="G48" s="3">
+        <v>2.37</v>
+      </c>
+      <c r="H48" s="3">
+        <v>3</v>
+      </c>
+      <c r="I48" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J48" s="3">
+        <v>180</v>
+      </c>
+      <c r="K48" s="5" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="F49" s="3">
+        <v>57</v>
+      </c>
+      <c r="G49" s="3">
+        <v>27.66</v>
+      </c>
+      <c r="H49" s="3">
+        <v>1</v>
+      </c>
+      <c r="I49" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J49" s="3">
+        <v>120</v>
+      </c>
+      <c r="K49" s="5" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="C50" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E50" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="F50" s="3">
+        <v>68.2</v>
+      </c>
+      <c r="G50" s="3">
+        <v>65.86</v>
+      </c>
+      <c r="H50" s="3">
+        <v>6</v>
+      </c>
+      <c r="I50" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J50" s="3">
+        <v>240</v>
+      </c>
+      <c r="K50" s="5" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="C51" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="E51" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="F51" s="3">
+        <v>72.5</v>
+      </c>
+      <c r="G51" s="3">
+        <v>200</v>
+      </c>
+      <c r="H51" s="3">
+        <v>2</v>
+      </c>
+      <c r="I51" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J51" s="3">
+        <v>290</v>
+      </c>
+      <c r="K51" s="5" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="E52" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="F52" s="3">
+        <v>78.9</v>
+      </c>
+      <c r="G52" s="3">
+        <v>158.6</v>
+      </c>
+      <c r="H52" s="3">
+        <v>36</v>
+      </c>
+      <c r="I52" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="J52" s="3">
+        <v>1</v>
+      </c>
+      <c r="K52" s="5" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="C53" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E53" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="F53" s="3">
+        <v>26.9</v>
+      </c>
+      <c r="G53" s="3">
+        <v>60.25</v>
+      </c>
+      <c r="H53" s="3">
+        <v>1</v>
+      </c>
+      <c r="I53" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J53" s="3">
+        <v>50</v>
+      </c>
+      <c r="K53" s="5" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="C54" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E54" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="F54" s="3">
+        <v>32.8</v>
+      </c>
+      <c r="G54" s="3">
+        <v>0</v>
+      </c>
+      <c r="H54" s="3">
+        <v>0</v>
+      </c>
+      <c r="I54" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="J54" s="3">
+        <v>1</v>
+      </c>
+      <c r="K54" s="5" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="C55" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="D55" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="E55" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="F55" s="3">
+        <v>5</v>
+      </c>
+      <c r="G55" s="3">
+        <v>12</v>
+      </c>
+      <c r="H55" s="3">
+        <v>1</v>
+      </c>
+      <c r="I55" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J55" s="3">
+        <v>20</v>
+      </c>
+      <c r="K55" s="5" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="C56" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="D56" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="E56" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="F56" s="3">
+        <v>0</v>
+      </c>
+      <c r="G56" s="3">
+        <v>0</v>
+      </c>
+      <c r="H56" s="3">
+        <v>2102</v>
+      </c>
+      <c r="I56" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="J56" s="3">
+        <v>30</v>
+      </c>
+      <c r="K56" s="5" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="C57" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="D57" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="E57" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="F57" s="3">
+        <v>0</v>
+      </c>
+      <c r="G57" s="3">
+        <v>0</v>
+      </c>
+      <c r="H57" s="3">
+        <v>1</v>
+      </c>
+      <c r="I57" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J57" s="3">
+        <v>48</v>
+      </c>
+      <c r="K57" s="5" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="C58" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="D58" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="F58" s="3">
+        <v>50.3</v>
+      </c>
+      <c r="G58" s="3">
+        <v>257.6</v>
+      </c>
+      <c r="H58" s="3">
+        <v>4</v>
+      </c>
+      <c r="I58" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J58" s="3">
+        <v>200</v>
+      </c>
+      <c r="K58" s="5" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="C59" s="4" t="s">
+        <v>276</v>
+      </c>
+      <c r="D59" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="E59" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="F59" s="3">
+        <v>25</v>
+      </c>
+      <c r="G59" s="3">
+        <v>187.3</v>
+      </c>
+      <c r="H59" s="3">
+        <v>2</v>
+      </c>
+      <c r="I59" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J59" s="3">
+        <v>100</v>
+      </c>
+      <c r="K59" s="5" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="C60" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="D60" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="E60" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="F60" s="3">
+        <v>97.85</v>
+      </c>
+      <c r="G60" s="3">
+        <v>125.8</v>
+      </c>
+      <c r="H60" s="3">
+        <v>0</v>
+      </c>
+      <c r="I60" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="J60" s="3">
+        <v>1</v>
+      </c>
+      <c r="K60" s="5" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="C61" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="D61" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E61" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="F61" s="3">
+        <v>12.5</v>
+      </c>
+      <c r="G61" s="3">
+        <v>56.3</v>
+      </c>
+      <c r="H61" s="3">
+        <v>1</v>
+      </c>
+      <c r="I61" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J61" s="3">
+        <v>50</v>
+      </c>
+      <c r="K61" s="5" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="C62" s="4" t="s">
+        <v>290</v>
+      </c>
+      <c r="D62" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="E62" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="F62" s="3">
+        <v>0</v>
+      </c>
+      <c r="G62" s="3">
+        <v>0</v>
+      </c>
+      <c r="H62" s="3">
+        <v>350</v>
+      </c>
+      <c r="I62" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="J62" s="3">
+        <v>1</v>
+      </c>
+      <c r="K62" s="5" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="C63" s="4" t="s">
+        <v>295</v>
+      </c>
+      <c r="D63" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E63" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="F63" s="3">
+        <v>398</v>
+      </c>
+      <c r="G63" s="3">
+        <v>134.18</v>
+      </c>
+      <c r="H63" s="3">
+        <v>0</v>
+      </c>
+      <c r="I63" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="J63" s="3">
+        <v>4</v>
+      </c>
+      <c r="K63" s="5" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B64" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="C64" s="4" t="s">
+        <v>299</v>
+      </c>
+      <c r="D64" s="3" t="s">
+        <v>300</v>
+      </c>
+      <c r="E64" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="F64" s="3">
+        <v>0</v>
+      </c>
+      <c r="G64" s="3">
+        <v>0</v>
+      </c>
+      <c r="H64" s="3">
+        <v>0</v>
+      </c>
+      <c r="I64" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="J64" s="3">
+        <v>1</v>
+      </c>
+      <c r="K64" s="5" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="B65" s="3" t="s">
+        <v>304</v>
+      </c>
+      <c r="C65" s="4" t="s">
+        <v>305</v>
+      </c>
+      <c r="D65" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="E65" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="F65" s="3">
+        <v>0</v>
+      </c>
+      <c r="G65" s="3">
+        <v>394.23</v>
+      </c>
+      <c r="H65" s="3">
+        <v>146</v>
+      </c>
+      <c r="I65" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="J65" s="3">
+        <v>60</v>
+      </c>
+      <c r="K65" s="5" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="B66" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="C66" s="4" t="s">
+        <v>309</v>
+      </c>
+      <c r="D66" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="E66" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="F66" s="3">
+        <v>0</v>
+      </c>
+      <c r="G66" s="3">
+        <v>0</v>
+      </c>
+      <c r="H66" s="3">
+        <v>1</v>
+      </c>
+      <c r="I66" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J66" s="3">
+        <v>3</v>
+      </c>
+      <c r="K66" s="5" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="B67" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="C67" s="4" t="s">
+        <v>313</v>
+      </c>
+      <c r="D67" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="E67" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="F67" s="3">
+        <v>21.22</v>
+      </c>
+      <c r="G67" s="3">
+        <v>29.14</v>
+      </c>
+      <c r="H67" s="3">
+        <v>3</v>
+      </c>
+      <c r="I67" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J67" s="3">
+        <v>75</v>
+      </c>
+      <c r="K67" s="5" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="B68" s="3" t="s">
+        <v>316</v>
+      </c>
+      <c r="C68" s="4" t="s">
+        <v>317</v>
+      </c>
+      <c r="D68" s="3" t="s">
+        <v>318</v>
+      </c>
+      <c r="E68" s="3" t="s">
+        <v>319</v>
+      </c>
+      <c r="F68" s="3">
+        <v>0</v>
+      </c>
+      <c r="G68" s="3">
+        <v>6.52</v>
+      </c>
+      <c r="H68" s="3">
+        <v>2</v>
+      </c>
+      <c r="I68" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J68" s="3">
+        <v>410</v>
+      </c>
+      <c r="K68" s="5" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B69" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="C69" s="4" t="s">
+        <v>322</v>
+      </c>
+      <c r="D69" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E69" s="3" t="s">
+        <v>323</v>
+      </c>
+      <c r="F69" s="3">
+        <v>0</v>
+      </c>
+      <c r="G69" s="3">
+        <v>0</v>
+      </c>
+      <c r="H69" s="3">
+        <v>0</v>
+      </c>
+      <c r="I69" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="J69" s="3">
+        <v>1</v>
+      </c>
+      <c r="K69" s="5" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B70" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="C70" s="4" t="s">
+        <v>326</v>
+      </c>
+      <c r="D70" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E70" s="3" t="s">
+        <v>327</v>
+      </c>
+      <c r="F70" s="3">
+        <v>30</v>
+      </c>
+      <c r="G70" s="3">
+        <v>38.46</v>
+      </c>
+      <c r="H70" s="3">
+        <v>2</v>
+      </c>
+      <c r="I70" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J70" s="3">
+        <v>100</v>
+      </c>
+      <c r="K70" s="5" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="B71" s="3" t="s">
+        <v>329</v>
+      </c>
+      <c r="C71" s="4" t="s">
+        <v>330</v>
+      </c>
+      <c r="D71" s="3" t="s">
+        <v>331</v>
+      </c>
+      <c r="E71" s="3" t="s">
+        <v>332</v>
+      </c>
+      <c r="F71" s="3">
+        <v>1221.5</v>
+      </c>
+      <c r="G71" s="3">
+        <v>0</v>
+      </c>
+      <c r="H71" s="3">
+        <v>4</v>
+      </c>
+      <c r="I71" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J71" s="3">
+        <v>300</v>
+      </c>
+      <c r="K71" s="5" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="B72" s="3" t="s">
+        <v>334</v>
+      </c>
+      <c r="C72" s="4" t="s">
+        <v>335</v>
+      </c>
+      <c r="D72" s="3" t="s">
+        <v>336</v>
+      </c>
+      <c r="E72" s="3" t="s">
+        <v>337</v>
+      </c>
+      <c r="F72" s="3">
         <v>90</v>
       </c>
-      <c r="C20" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="D20" s="3" t="s">
+      <c r="G72" s="3">
+        <v>152.4</v>
+      </c>
+      <c r="H72" s="3">
+        <v>1</v>
+      </c>
+      <c r="I72" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="J72" s="3">
+        <v>180</v>
+      </c>
+      <c r="K72" s="5" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B73" s="3" t="s">
+        <v>334</v>
+      </c>
+      <c r="C73" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="D73" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="E73" s="3" t="s">
+        <v>340</v>
+      </c>
+      <c r="F73" s="3">
+        <v>517.31</v>
+      </c>
+      <c r="G73" s="3">
+        <v>602.61</v>
+      </c>
+      <c r="H73" s="3">
+        <v>1182</v>
+      </c>
+      <c r="I73" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="J73" s="3">
+        <v>1</v>
+      </c>
+      <c r="K73" s="5" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B74" s="3" t="s">
+        <v>342</v>
+      </c>
+      <c r="C74" s="4" t="s">
+        <v>343</v>
+      </c>
+      <c r="D74" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E74" s="3" t="s">
+        <v>344</v>
+      </c>
+      <c r="F74" s="3">
+        <v>1.2</v>
+      </c>
+      <c r="G74" s="3">
+        <v>51.7</v>
+      </c>
+      <c r="H74" s="3">
+        <v>1</v>
+      </c>
+      <c r="I74" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="J74" s="3">
+        <v>1</v>
+      </c>
+      <c r="K74" s="5" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="B75" s="3" t="s">
+        <v>346</v>
+      </c>
+      <c r="C75" s="4" t="s">
+        <v>347</v>
+      </c>
+      <c r="D75" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="E75" s="3" t="s">
+        <v>348</v>
+      </c>
+      <c r="F75" s="3">
+        <v>47.9</v>
+      </c>
+      <c r="G75" s="3">
+        <v>123.5</v>
+      </c>
+      <c r="H75" s="3">
+        <v>7</v>
+      </c>
+      <c r="I75" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="J75" s="3">
+        <v>50</v>
+      </c>
+      <c r="K75" s="5" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B76" s="3" t="s">
+        <v>350</v>
+      </c>
+      <c r="C76" s="4" t="s">
+        <v>351</v>
+      </c>
+      <c r="D76" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="E76" s="3" t="s">
+        <v>352</v>
+      </c>
+      <c r="F76" s="3">
+        <v>494.81</v>
+      </c>
+      <c r="G76" s="3">
+        <v>1335.21</v>
+      </c>
+      <c r="H76" s="3">
+        <v>0</v>
+      </c>
+      <c r="I76" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="J76" s="3">
+        <v>320</v>
+      </c>
+      <c r="K76" s="5" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="B77" s="3" t="s">
+        <v>354</v>
+      </c>
+      <c r="C77" s="4" t="s">
+        <v>355</v>
+      </c>
+      <c r="D77" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="E77" s="3" t="s">
+        <v>356</v>
+      </c>
+      <c r="F77" s="3">
+        <v>112.4</v>
+      </c>
+      <c r="G77" s="3">
+        <v>122.32</v>
+      </c>
+      <c r="H77" s="3">
+        <v>4</v>
+      </c>
+      <c r="I77" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J77" s="3">
+        <v>400</v>
+      </c>
+      <c r="K77" s="5" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="B78" s="3" t="s">
+        <v>358</v>
+      </c>
+      <c r="C78" s="4" t="s">
+        <v>359</v>
+      </c>
+      <c r="D78" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="E78" s="3" t="s">
+        <v>360</v>
+      </c>
+      <c r="F78" s="3">
+        <v>25.29</v>
+      </c>
+      <c r="G78" s="3">
+        <v>27.28</v>
+      </c>
+      <c r="H78" s="3">
+        <v>3</v>
+      </c>
+      <c r="I78" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J78" s="3">
+        <v>90</v>
+      </c>
+      <c r="K78" s="5" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B79" s="3" t="s">
+        <v>362</v>
+      </c>
+      <c r="C79" s="4" t="s">
+        <v>326</v>
+      </c>
+      <c r="D79" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E79" s="3" t="s">
+        <v>363</v>
+      </c>
+      <c r="F79" s="3">
+        <v>30</v>
+      </c>
+      <c r="G79" s="3">
+        <v>22.77</v>
+      </c>
+      <c r="H79" s="3">
+        <v>2</v>
+      </c>
+      <c r="I79" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J79" s="3">
+        <v>100</v>
+      </c>
+      <c r="K79" s="5" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="B80" s="3" t="s">
+        <v>365</v>
+      </c>
+      <c r="C80" s="4" t="s">
+        <v>366</v>
+      </c>
+      <c r="D80" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="E80" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="F80" s="3">
+        <v>98.35</v>
+      </c>
+      <c r="G80" s="3">
+        <v>110.48</v>
+      </c>
+      <c r="H80" s="3">
+        <v>7</v>
+      </c>
+      <c r="I80" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J80" s="3">
+        <v>350</v>
+      </c>
+      <c r="K80" s="5" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B81" s="3" t="s">
+        <v>369</v>
+      </c>
+      <c r="C81" s="4" t="s">
+        <v>370</v>
+      </c>
+      <c r="D81" s="3" t="s">
+        <v>371</v>
+      </c>
+      <c r="E81" s="3" t="s">
+        <v>372</v>
+      </c>
+      <c r="F81" s="3">
+        <v>38.72</v>
+      </c>
+      <c r="G81" s="3">
+        <v>82.26</v>
+      </c>
+      <c r="H81" s="3">
+        <v>1</v>
+      </c>
+      <c r="I81" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J81" s="3">
+        <v>120</v>
+      </c>
+      <c r="K81" s="5" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B82" s="3" t="s">
+        <v>374</v>
+      </c>
+      <c r="C82" s="4" t="s">
+        <v>375</v>
+      </c>
+      <c r="D82" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E20" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="F20" s="3">
-        <v>826.64</v>
-      </c>
-      <c r="G20" s="3">
-        <v>3807.6</v>
-      </c>
-      <c r="H20" s="3">
-        <v>62</v>
-      </c>
-      <c r="I20" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="J20" s="3">
+      <c r="E82" s="3" t="s">
+        <v>376</v>
+      </c>
+      <c r="F82" s="3">
+        <v>39.5</v>
+      </c>
+      <c r="G82" s="3">
+        <v>41.47</v>
+      </c>
+      <c r="H82" s="3">
+        <v>3</v>
+      </c>
+      <c r="I82" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J82" s="3">
+        <v>150</v>
+      </c>
+      <c r="K82" s="5" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="B83" s="3" t="s">
+        <v>378</v>
+      </c>
+      <c r="C83" s="4" t="s">
+        <v>379</v>
+      </c>
+      <c r="D83" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="E83" s="3" t="s">
+        <v>380</v>
+      </c>
+      <c r="F83" s="3">
+        <v>42.15</v>
+      </c>
+      <c r="G83" s="3">
+        <v>45.47</v>
+      </c>
+      <c r="H83" s="3">
+        <v>3</v>
+      </c>
+      <c r="I83" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J83" s="3">
+        <v>150</v>
+      </c>
+      <c r="K83" s="5" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B84" s="3" t="s">
+        <v>382</v>
+      </c>
+      <c r="C84" s="4" t="s">
+        <v>383</v>
+      </c>
+      <c r="D84" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E84" s="3" t="s">
+        <v>384</v>
+      </c>
+      <c r="F84" s="3">
+        <v>336.65</v>
+      </c>
+      <c r="G84" s="3">
+        <v>0</v>
+      </c>
+      <c r="H84" s="3">
+        <v>0</v>
+      </c>
+      <c r="I84" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="J84" s="3">
+        <v>250</v>
+      </c>
+      <c r="K84" s="5" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="B85" s="3" t="s">
+        <v>386</v>
+      </c>
+      <c r="C85" s="4" t="s">
+        <v>387</v>
+      </c>
+      <c r="D85" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="E85" s="3" t="s">
+        <v>388</v>
+      </c>
+      <c r="F85" s="3">
+        <v>0</v>
+      </c>
+      <c r="G85" s="3">
+        <v>0</v>
+      </c>
+      <c r="H85" s="3">
+        <v>0</v>
+      </c>
+      <c r="I85" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="J85" s="3">
+        <v>1</v>
+      </c>
+      <c r="K85" s="5" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="B86" s="3" t="s">
+        <v>390</v>
+      </c>
+      <c r="C86" s="4" t="s">
+        <v>391</v>
+      </c>
+      <c r="D86" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="E86" s="3" t="s">
+        <v>392</v>
+      </c>
+      <c r="F86" s="3">
+        <v>25</v>
+      </c>
+      <c r="G86" s="3">
+        <v>0</v>
+      </c>
+      <c r="H86" s="3">
+        <v>1</v>
+      </c>
+      <c r="I86" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J86" s="3">
+        <v>50</v>
+      </c>
+      <c r="K86" s="5" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="3" t="s">
+        <v>394</v>
+      </c>
+      <c r="B87" s="3" t="s">
+        <v>395</v>
+      </c>
+      <c r="C87" s="4" t="s">
+        <v>396</v>
+      </c>
+      <c r="D87" s="3" t="s">
+        <v>397</v>
+      </c>
+      <c r="E87" s="3" t="s">
+        <v>398</v>
+      </c>
+      <c r="F87" s="3">
+        <v>202.2</v>
+      </c>
+      <c r="G87" s="3">
+        <v>473</v>
+      </c>
+      <c r="H87" s="3">
+        <v>2</v>
+      </c>
+      <c r="I87" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="J87" s="3">
+        <v>60</v>
+      </c>
+      <c r="K87" s="5" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="3" t="s">
+        <v>394</v>
+      </c>
+      <c r="B88" s="3" t="s">
+        <v>395</v>
+      </c>
+      <c r="C88" s="4" t="s">
+        <v>400</v>
+      </c>
+      <c r="D88" s="3" t="s">
+        <v>401</v>
+      </c>
+      <c r="E88" s="3" t="s">
+        <v>402</v>
+      </c>
+      <c r="F88" s="3">
+        <v>200</v>
+      </c>
+      <c r="G88" s="3">
+        <v>0</v>
+      </c>
+      <c r="H88" s="3">
+        <v>0</v>
+      </c>
+      <c r="I88" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="J88" s="3">
+        <v>800</v>
+      </c>
+      <c r="K88" s="5" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="B89" s="3" t="s">
+        <v>404</v>
+      </c>
+      <c r="C89" s="4" t="s">
+        <v>405</v>
+      </c>
+      <c r="D89" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="E89" s="3" t="s">
+        <v>406</v>
+      </c>
+      <c r="F89" s="3">
+        <v>75.1</v>
+      </c>
+      <c r="G89" s="3">
+        <v>78.8</v>
+      </c>
+      <c r="H89" s="3">
+        <v>7</v>
+      </c>
+      <c r="I89" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J89" s="3">
+        <v>260</v>
+      </c>
+      <c r="K89" s="5" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B90" s="3" t="s">
+        <v>408</v>
+      </c>
+      <c r="C90" s="4" t="s">
+        <v>409</v>
+      </c>
+      <c r="D90" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E90" s="3" t="s">
+        <v>410</v>
+      </c>
+      <c r="F90" s="3">
+        <v>235.6</v>
+      </c>
+      <c r="G90" s="3">
+        <v>0</v>
+      </c>
+      <c r="H90" s="3">
+        <v>0</v>
+      </c>
+      <c r="I90" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="J90" s="3">
+        <v>300</v>
+      </c>
+      <c r="K90" s="5" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="3" t="s">
+        <v>394</v>
+      </c>
+      <c r="B91" s="3" t="s">
+        <v>408</v>
+      </c>
+      <c r="C91" s="4" t="s">
+        <v>412</v>
+      </c>
+      <c r="D91" s="3" t="s">
+        <v>401</v>
+      </c>
+      <c r="E91" s="3" t="s">
+        <v>413</v>
+      </c>
+      <c r="F91" s="3">
+        <v>162.5</v>
+      </c>
+      <c r="G91" s="3">
+        <v>0</v>
+      </c>
+      <c r="H91" s="3">
+        <v>0</v>
+      </c>
+      <c r="I91" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="J91" s="3">
+        <v>650</v>
+      </c>
+      <c r="K91" s="5" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="B92" s="3" t="s">
+        <v>415</v>
+      </c>
+      <c r="C92" s="4" t="s">
+        <v>416</v>
+      </c>
+      <c r="D92" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="E92" s="3" t="s">
+        <v>417</v>
+      </c>
+      <c r="F92" s="3">
+        <v>25</v>
+      </c>
+      <c r="G92" s="3">
+        <v>82.9</v>
+      </c>
+      <c r="H92" s="3">
+        <v>1</v>
+      </c>
+      <c r="I92" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J92" s="3">
+        <v>50</v>
+      </c>
+      <c r="K92" s="5" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B93" s="3" t="s">
+        <v>419</v>
+      </c>
+      <c r="C93" s="4" t="s">
+        <v>420</v>
+      </c>
+      <c r="D93" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E93" s="3" t="s">
+        <v>421</v>
+      </c>
+      <c r="F93" s="3">
+        <v>57</v>
+      </c>
+      <c r="G93" s="3">
+        <v>26.83</v>
+      </c>
+      <c r="H93" s="3">
+        <v>1</v>
+      </c>
+      <c r="I93" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J93" s="3">
+        <v>150</v>
+      </c>
+      <c r="K93" s="5" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="B94" s="3" t="s">
+        <v>423</v>
+      </c>
+      <c r="C94" s="4" t="s">
+        <v>424</v>
+      </c>
+      <c r="D94" s="3" t="s">
+        <v>425</v>
+      </c>
+      <c r="E94" s="3"/>
+      <c r="F94" s="3">
+        <v>1356.8</v>
+      </c>
+      <c r="G94" s="3">
+        <v>0</v>
+      </c>
+      <c r="H94" s="3">
+        <v>2</v>
+      </c>
+      <c r="I94" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="J94" s="3">
+        <v>2700</v>
+      </c>
+      <c r="K94" s="5" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="B95" s="3" t="s">
+        <v>427</v>
+      </c>
+      <c r="C95" s="4" t="s">
+        <v>428</v>
+      </c>
+      <c r="D95" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="E95" s="3" t="s">
+        <v>429</v>
+      </c>
+      <c r="F95" s="3">
+        <v>25.29</v>
+      </c>
+      <c r="G95" s="3">
+        <v>27.45</v>
+      </c>
+      <c r="H95" s="3">
         <v>4</v>
       </c>
-      <c r="K20" s="5" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="B21" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="C21" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="D21" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="E21" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="F21" s="6">
-        <v>0</v>
-      </c>
-      <c r="G21" s="6">
-        <v>0</v>
-      </c>
-      <c r="H21" s="6">
-        <v>4</v>
-      </c>
-      <c r="I21" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="J21" s="6">
-        <v>150</v>
-      </c>
-      <c r="K21" s="8" t="s">
-        <v>102</v>
+      <c r="I95" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J95" s="3">
+        <v>105</v>
+      </c>
+      <c r="K95" s="5" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="B96" s="3" t="s">
+        <v>431</v>
+      </c>
+      <c r="C96" s="4" t="s">
+        <v>432</v>
+      </c>
+      <c r="D96" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="E96" s="3" t="s">
+        <v>433</v>
+      </c>
+      <c r="F96" s="3">
+        <v>42.15</v>
+      </c>
+      <c r="G96" s="3">
+        <v>46.4</v>
+      </c>
+      <c r="H96" s="3">
+        <v>2</v>
+      </c>
+      <c r="I96" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J96" s="3">
+        <v>90</v>
+      </c>
+      <c r="K96" s="5" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="B97" s="3" t="s">
+        <v>435</v>
+      </c>
+      <c r="C97" s="4" t="s">
+        <v>436</v>
+      </c>
+      <c r="D97" s="3" t="s">
+        <v>437</v>
+      </c>
+      <c r="E97" s="3" t="s">
+        <v>438</v>
+      </c>
+      <c r="F97" s="3">
+        <v>1785.2</v>
+      </c>
+      <c r="G97" s="3">
+        <v>0</v>
+      </c>
+      <c r="H97" s="3">
+        <v>0</v>
+      </c>
+      <c r="I97" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="J97" s="3">
+        <v>1300</v>
+      </c>
+      <c r="K97" s="5" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B98" s="3" t="s">
+        <v>435</v>
+      </c>
+      <c r="C98" s="4" t="s">
+        <v>440</v>
+      </c>
+      <c r="D98" s="3" t="s">
+        <v>441</v>
+      </c>
+      <c r="E98" s="3" t="s">
+        <v>442</v>
+      </c>
+      <c r="F98" s="3">
+        <v>0</v>
+      </c>
+      <c r="G98" s="3">
+        <v>0</v>
+      </c>
+      <c r="H98" s="3">
+        <v>0</v>
+      </c>
+      <c r="I98" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="J98" s="3">
+        <v>3</v>
+      </c>
+      <c r="K98" s="5" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="B99" s="3" t="s">
+        <v>444</v>
+      </c>
+      <c r="C99" s="4" t="s">
+        <v>445</v>
+      </c>
+      <c r="D99" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="E99" s="3" t="s">
+        <v>446</v>
+      </c>
+      <c r="F99" s="3">
+        <v>1342.85</v>
+      </c>
+      <c r="G99" s="3">
+        <v>0</v>
+      </c>
+      <c r="H99" s="3">
+        <v>2012</v>
+      </c>
+      <c r="I99" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="J99" s="3">
+        <v>250</v>
+      </c>
+      <c r="K99" s="5" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B100" s="3" t="s">
+        <v>448</v>
+      </c>
+      <c r="C100" s="4" t="s">
+        <v>449</v>
+      </c>
+      <c r="D100" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E100" s="3" t="s">
+        <v>450</v>
+      </c>
+      <c r="F100" s="3">
+        <v>0</v>
+      </c>
+      <c r="G100" s="3">
+        <v>4.5</v>
+      </c>
+      <c r="H100" s="3">
+        <v>80</v>
+      </c>
+      <c r="I100" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="J100" s="3">
+        <v>200</v>
+      </c>
+      <c r="K100" s="5" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B101" s="3" t="s">
+        <v>452</v>
+      </c>
+      <c r="C101" s="4" t="s">
+        <v>453</v>
+      </c>
+      <c r="D101" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E101" s="3" t="s">
+        <v>454</v>
+      </c>
+      <c r="F101" s="3">
+        <v>375.5</v>
+      </c>
+      <c r="G101" s="3">
+        <v>0</v>
+      </c>
+      <c r="H101" s="3">
+        <v>0</v>
+      </c>
+      <c r="I101" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="J101" s="3">
+        <v>125</v>
+      </c>
+      <c r="K101" s="5" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="B102" s="6" t="s">
+        <v>456</v>
+      </c>
+      <c r="C102" s="7" t="s">
+        <v>457</v>
+      </c>
+      <c r="D102" s="6" t="s">
+        <v>331</v>
+      </c>
+      <c r="E102" s="6" t="s">
+        <v>458</v>
+      </c>
+      <c r="F102" s="6">
+        <v>108.96</v>
+      </c>
+      <c r="G102" s="6">
+        <v>0</v>
+      </c>
+      <c r="H102" s="6">
+        <v>0</v>
+      </c>
+      <c r="I102" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="J102" s="6">
+        <v>36</v>
+      </c>
+      <c r="K102" s="8" t="s">
+        <v>459</v>
       </c>
     </row>
   </sheetData>
